--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730216</v>
+        <v>111731060</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1296,29 +1296,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1327,10 +1323,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367499.9040505511</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R6" t="n">
-        <v>6871171.172595749</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1357,22 +1353,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1410,10 +1406,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111730457</v>
+        <v>111730403</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1426,21 +1422,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1457,10 +1453,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367515.5716414675</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R7" t="n">
-        <v>6871294.915694831</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1540,7 +1536,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111729509</v>
+        <v>111729422</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1587,10 +1583,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367351.5527010285</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R8" t="n">
-        <v>6871697.886848727</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1670,10 +1666,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111730403</v>
+        <v>111730844</v>
       </c>
       <c r="B9" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1682,33 +1678,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1717,10 +1709,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367509.5217049009</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R9" t="n">
-        <v>6871297.035335077</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1752,7 +1744,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1762,7 +1754,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1782,7 +1774,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1800,10 +1792,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111731309</v>
+        <v>111730457</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1812,25 +1804,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1847,10 +1839,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367501.3862919735</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R10" t="n">
-        <v>6871294.054900883</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1877,22 +1869,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1930,10 +1922,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111730155</v>
+        <v>111730937</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1942,30 +1934,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1981,10 +1973,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367511.4922534205</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R11" t="n">
-        <v>6871287.067064899</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2011,22 +2003,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2064,10 +2056,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111729621</v>
+        <v>111730525</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2076,25 +2068,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2111,10 +2103,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367399.194539216</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R12" t="n">
-        <v>6871661.648711029</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2146,7 +2138,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2156,7 +2148,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2194,10 +2191,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111731060</v>
+        <v>111731309</v>
       </c>
       <c r="B13" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2206,29 +2203,33 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2237,10 +2238,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367494.0193026412</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R13" t="n">
-        <v>6871395.610869153</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2272,7 +2273,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2282,7 +2283,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2320,10 +2321,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111732925</v>
+        <v>111730046</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2332,29 +2333,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2363,10 +2368,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367522.3475011056</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R14" t="n">
-        <v>6871384.145631685</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2393,22 +2398,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2428,7 +2433,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2446,10 +2451,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111729372</v>
+        <v>111733035</v>
       </c>
       <c r="B15" t="n">
-        <v>78081</v>
+        <v>8377</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2458,45 +2463,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367457.2767518484</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R15" t="n">
-        <v>6871554.356343843</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2523,27 +2530,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2563,22 +2565,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2596,10 +2583,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111729321</v>
+        <v>111729473</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2608,30 +2595,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2647,10 +2634,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367478.4289107045</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R16" t="n">
-        <v>6871540.344720463</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2682,7 +2669,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2692,7 +2679,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2712,7 +2704,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2730,10 +2722,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111729422</v>
+        <v>111730258</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2742,33 +2734,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2777,10 +2765,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367397.9777122263</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R17" t="n">
-        <v>6871654.631472632</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2812,7 +2800,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2822,7 +2810,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2860,10 +2848,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111731021</v>
+        <v>111731030</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2872,25 +2860,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2968,7 +2956,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2986,10 +2974,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111733035</v>
+        <v>111729321</v>
       </c>
       <c r="B19" t="n">
-        <v>8377</v>
+        <v>90709</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2998,36 +2986,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -3035,10 +3025,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367525.4248074447</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R19" t="n">
-        <v>6871378.373665834</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3065,22 +3055,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3100,7 +3090,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3118,10 +3108,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111731274</v>
+        <v>111731366</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3130,33 +3120,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3165,10 +3151,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367536.2279934552</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R20" t="n">
-        <v>6871304.474127219</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3230,7 +3216,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3248,7 +3234,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111730046</v>
+        <v>111729509</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3295,10 +3281,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367448.1597365885</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R21" t="n">
-        <v>6871417.179379676</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3330,7 +3316,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3340,7 +3326,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3504,10 +3490,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111730258</v>
+        <v>111731021</v>
       </c>
       <c r="B23" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3516,25 +3502,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3547,10 +3533,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367499.689386631</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R23" t="n">
-        <v>6871177.775549179</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3577,22 +3563,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3612,7 +3598,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3630,10 +3616,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731030</v>
+        <v>111730155</v>
       </c>
       <c r="B24" t="n">
-        <v>90689</v>
+        <v>90682</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3646,25 +3632,33 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3673,10 +3667,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367473.075432463</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R24" t="n">
-        <v>6871475.555632563</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3703,22 +3697,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3756,7 +3750,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111729473</v>
+        <v>111731006</v>
       </c>
       <c r="B25" t="n">
         <v>90666</v>
@@ -3789,16 +3783,8 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3807,10 +3793,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367342.880642174</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R25" t="n">
-        <v>6871669.024526398</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3837,27 +3823,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3895,10 +3876,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730525</v>
+        <v>111730187</v>
       </c>
       <c r="B26" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3907,25 +3888,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3942,10 +3923,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367583.9610761613</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R26" t="n">
-        <v>6871343.124249188</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3977,7 +3958,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3987,12 +3968,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4012,7 +3988,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4030,10 +4006,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111730937</v>
+        <v>111732925</v>
       </c>
       <c r="B27" t="n">
-        <v>88032</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4042,37 +4018,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6276</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4081,10 +4049,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367427.0662824844</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R27" t="n">
-        <v>6871565.895031672</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4111,22 +4079,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4146,7 +4114,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4164,10 +4132,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111732650</v>
+        <v>111730480</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4176,25 +4144,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4207,10 +4175,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367499.9406743076</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R28" t="n">
-        <v>6871172.113255707</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4237,27 +4205,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4277,7 +4240,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4295,10 +4258,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731006</v>
+        <v>111729372</v>
       </c>
       <c r="B29" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4307,41 +4270,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367374.3210188161</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R29" t="n">
-        <v>6871616.46209108</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4368,22 +4335,27 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4403,7 +4375,22 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4421,10 +4408,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730844</v>
+        <v>111732650</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4433,25 +4420,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4464,10 +4451,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367524.3844621138</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R30" t="n">
-        <v>6871315.297681119</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4494,22 +4481,27 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4529,7 +4521,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4547,7 +4539,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730187</v>
+        <v>111729694</v>
       </c>
       <c r="B31" t="n">
         <v>90666</v>
@@ -4594,10 +4586,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367479.9610695003</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R31" t="n">
-        <v>6871179.95684042</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4629,7 +4621,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4639,7 +4631,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4659,7 +4651,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4677,10 +4669,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730480</v>
+        <v>111730216</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4689,29 +4681,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4720,10 +4716,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367528.9347990834</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R32" t="n">
-        <v>6871323.127923099</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4803,10 +4799,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111731366</v>
+        <v>111731274</v>
       </c>
       <c r="B33" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4815,29 +4811,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367478.0523349147</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R33" t="n">
-        <v>6871421.667217744</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111729694</v>
+        <v>111732570</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4941,33 +4941,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4976,10 +4972,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367376.3148749042</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R34" t="n">
-        <v>6871619.210274726</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5006,22 +5002,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5059,10 +5060,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111732570</v>
+        <v>111729621</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5071,29 +5072,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -5102,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367471.0424379559</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R35" t="n">
-        <v>6871338.570634114</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5132,27 +5137,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111731060</v>
+        <v>111730187</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,29 +1292,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1323,10 +1327,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367494.0193026412</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R6" t="n">
-        <v>6871395.610869153</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1353,22 +1357,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1388,7 +1392,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1406,10 +1410,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111730403</v>
+        <v>111731274</v>
       </c>
       <c r="B7" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1418,25 +1422,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1453,10 +1457,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367509.5217049009</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R7" t="n">
-        <v>6871297.035335077</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1483,22 +1487,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1536,7 +1540,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111729422</v>
+        <v>111731021</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1570,11 +1574,7 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367397.9777122263</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R8" t="n">
-        <v>6871654.631472632</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1613,22 +1613,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111730844</v>
+        <v>111732925</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1678,25 +1678,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367524.3844621138</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R9" t="n">
-        <v>6871315.297681119</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1739,22 +1739,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111730457</v>
+        <v>111731366</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1808,29 +1808,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1839,10 +1835,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367515.5716414675</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R10" t="n">
-        <v>6871294.915694831</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1869,22 +1865,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1904,7 +1900,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2056,10 +2052,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111730525</v>
+        <v>111729694</v>
       </c>
       <c r="B12" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2068,25 +2064,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2103,10 +2099,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367583.9610761613</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R12" t="n">
-        <v>6871343.124249188</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2138,7 +2134,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2148,12 +2144,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2191,10 +2182,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111731309</v>
+        <v>111729372</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2203,45 +2194,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367501.3862919735</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R13" t="n">
-        <v>6871294.054900883</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2268,22 +2259,27 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2303,7 +2299,22 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2321,10 +2332,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111730046</v>
+        <v>111732570</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2333,33 +2344,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2368,10 +2375,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367448.1597365885</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R14" t="n">
-        <v>6871417.179379676</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2398,22 +2405,27 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2451,10 +2463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111733035</v>
+        <v>111729422</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2467,32 +2479,30 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2500,10 +2510,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367525.4248074447</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R15" t="n">
-        <v>6871378.373665834</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2530,22 +2540,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2583,10 +2593,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111729473</v>
+        <v>111730216</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2595,32 +2605,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2634,10 +2640,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367342.880642174</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R16" t="n">
-        <v>6871669.024526398</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2669,7 +2675,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2679,12 +2685,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2722,10 +2723,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111730258</v>
+        <v>111729621</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2734,29 +2735,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2765,10 +2770,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367499.689386631</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R17" t="n">
-        <v>6871177.775549179</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2800,7 +2805,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2810,7 +2815,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2848,10 +2853,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111731030</v>
+        <v>111730046</v>
       </c>
       <c r="B18" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2860,29 +2865,33 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2891,10 +2900,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367473.075432463</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R18" t="n">
-        <v>6871475.555632563</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2921,22 +2930,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2974,7 +2983,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111729321</v>
+        <v>111730403</v>
       </c>
       <c r="B19" t="n">
         <v>90709</v>
@@ -3007,11 +3016,7 @@
           <t>(Schultz) nom.prov</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3025,10 +3030,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367478.4289107045</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R19" t="n">
-        <v>6871540.344720463</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3060,7 +3065,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3070,7 +3075,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3090,7 +3095,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3108,10 +3113,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111731366</v>
+        <v>111730985</v>
       </c>
       <c r="B20" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3120,25 +3125,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -3151,10 +3156,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367478.0523349147</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R20" t="n">
-        <v>6871421.667217744</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3186,7 +3191,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3196,7 +3201,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3216,7 +3221,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3234,7 +3239,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111729509</v>
+        <v>111731309</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3281,10 +3286,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367351.5527010285</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R21" t="n">
-        <v>6871697.886848727</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3311,22 +3316,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3364,7 +3369,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111730985</v>
+        <v>111729473</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3397,8 +3402,16 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
@@ -3407,10 +3420,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367353.8170817234</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R22" t="n">
-        <v>6871659.178617892</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3437,22 +3450,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3490,10 +3508,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731021</v>
+        <v>111731060</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3502,25 +3520,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3533,10 +3551,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367473.075432463</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R23" t="n">
-        <v>6871475.555632563</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3568,7 +3586,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3578,7 +3596,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3598,7 +3616,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3616,10 +3634,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111730155</v>
+        <v>111732650</v>
       </c>
       <c r="B24" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3632,33 +3650,25 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3667,10 +3677,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367511.4922534205</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R24" t="n">
-        <v>6871287.067064899</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3697,22 +3707,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3732,7 +3747,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3750,10 +3765,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111731006</v>
+        <v>111730457</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3762,29 +3777,33 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3793,10 +3812,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367374.3210188161</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R25" t="n">
-        <v>6871616.46209108</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3823,22 +3842,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3876,7 +3895,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730187</v>
+        <v>111730844</v>
       </c>
       <c r="B26" t="n">
         <v>90666</v>
@@ -3910,11 +3929,7 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3923,10 +3938,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367479.9610695003</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R26" t="n">
-        <v>6871179.95684042</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3958,7 +3973,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3968,7 +3983,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3988,7 +4003,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4006,10 +4021,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111732925</v>
+        <v>111731030</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>90689</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4022,21 +4037,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4049,10 +4064,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367522.3475011056</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R27" t="n">
-        <v>6871384.145631685</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4079,22 +4094,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4114,7 +4129,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4132,10 +4147,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111730480</v>
+        <v>111730525</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4144,29 +4159,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -4175,10 +4194,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367528.9347990834</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R28" t="n">
-        <v>6871323.127923099</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4210,7 +4229,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4220,7 +4239,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4258,10 +4282,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111729372</v>
+        <v>111730480</v>
       </c>
       <c r="B29" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4270,45 +4294,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367457.2767518484</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R29" t="n">
-        <v>6871554.356343843</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4340,7 +4360,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4350,12 +4370,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4375,22 +4390,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111732650</v>
+        <v>111729509</v>
       </c>
       <c r="B30" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4420,29 +4420,33 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4451,10 +4455,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367499.9406743076</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R30" t="n">
-        <v>6871172.113255707</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4481,27 +4485,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4521,7 +4520,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4539,7 +4538,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111729694</v>
+        <v>111731006</v>
       </c>
       <c r="B31" t="n">
         <v>90666</v>
@@ -4573,11 +4572,7 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4586,10 +4581,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367376.3148749042</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R31" t="n">
-        <v>6871619.210274726</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4616,22 +4611,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4669,7 +4664,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730216</v>
+        <v>111730258</v>
       </c>
       <c r="B32" t="n">
         <v>90660</v>
@@ -4703,11 +4698,7 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4716,10 +4707,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367499.9040505511</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R32" t="n">
-        <v>6871171.172595749</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4799,10 +4790,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111731274</v>
+        <v>111733035</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4815,30 +4806,32 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4846,10 +4839,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367536.2279934552</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R33" t="n">
-        <v>6871304.474127219</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4876,22 +4869,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4929,10 +4922,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111732570</v>
+        <v>111729321</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>90709</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4945,25 +4938,33 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4972,10 +4973,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367471.0424379559</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R34" t="n">
-        <v>6871338.570634114</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5002,27 +5003,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5042,7 +5038,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5060,10 +5056,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111729621</v>
+        <v>111730155</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5072,28 +5068,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367399.194539216</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R35" t="n">
-        <v>6871661.648711029</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730187</v>
+        <v>111732925</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,33 +1292,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1327,10 +1323,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367479.9610695003</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R6" t="n">
-        <v>6871179.95684042</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1357,22 +1353,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1392,7 +1388,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1410,10 +1406,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111731274</v>
+        <v>111732570</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1422,33 +1418,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1457,10 +1449,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367536.2279934552</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R7" t="n">
-        <v>6871304.474127219</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1487,7 +1479,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1497,12 +1489,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1540,7 +1537,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111731021</v>
+        <v>111731006</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1583,10 +1580,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367473.075432463</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R8" t="n">
-        <v>6871475.555632563</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1648,7 +1645,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1666,10 +1663,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111732925</v>
+        <v>111729422</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1678,29 +1675,33 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1709,10 +1710,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367522.3475011056</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R9" t="n">
-        <v>6871384.145631685</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1739,22 +1740,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1774,7 +1775,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1792,10 +1793,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111731366</v>
+        <v>111730525</v>
       </c>
       <c r="B10" t="n">
-        <v>90652</v>
+        <v>90712</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1804,29 +1805,33 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3100</v>
+        <v>232140</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1835,10 +1840,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367478.0523349147</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R10" t="n">
-        <v>6871421.667217744</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1865,22 +1870,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1900,7 +1910,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2052,7 +2062,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111729694</v>
+        <v>111730480</v>
       </c>
       <c r="B12" t="n">
         <v>90666</v>
@@ -2086,11 +2096,7 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -2099,10 +2105,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367376.3148749042</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R12" t="n">
-        <v>6871619.210274726</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2134,7 +2140,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2144,7 +2150,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2182,10 +2188,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111729372</v>
+        <v>111729621</v>
       </c>
       <c r="B13" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2194,45 +2200,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367457.2767518484</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R13" t="n">
-        <v>6871554.356343843</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2264,7 +2270,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2274,12 +2280,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2299,22 +2300,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2332,10 +2318,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111732570</v>
+        <v>111730258</v>
       </c>
       <c r="B14" t="n">
-        <v>78579</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2348,21 +2334,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2375,10 +2361,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367471.0424379559</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R14" t="n">
-        <v>6871338.570634114</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2405,27 +2391,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2463,10 +2444,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111729422</v>
+        <v>111729321</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2475,28 +2456,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2510,10 +2495,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367397.9777122263</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R15" t="n">
-        <v>6871654.631472632</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2545,7 +2530,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2555,7 +2540,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2575,7 +2560,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2593,10 +2578,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111730216</v>
+        <v>111729509</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2605,25 +2590,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2640,10 +2625,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367499.9040505511</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R16" t="n">
-        <v>6871171.172595749</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2675,7 +2660,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2685,7 +2670,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2723,10 +2708,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111729621</v>
+        <v>111731030</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2735,33 +2720,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2770,10 +2751,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367399.194539216</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R17" t="n">
-        <v>6871661.648711029</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2800,22 +2781,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2853,10 +2834,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730046</v>
+        <v>111733035</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2869,30 +2850,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2900,10 +2883,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367448.1597365885</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R18" t="n">
-        <v>6871417.179379676</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2930,22 +2913,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2983,10 +2966,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111730403</v>
+        <v>111730216</v>
       </c>
       <c r="B19" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2999,21 +2982,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -3030,10 +3013,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367509.5217049009</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R19" t="n">
-        <v>6871297.035335077</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3113,10 +3096,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730985</v>
+        <v>111730403</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3125,29 +3108,33 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3156,10 +3143,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367353.8170817234</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R20" t="n">
-        <v>6871659.178617892</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3186,22 +3173,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3239,7 +3226,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111731309</v>
+        <v>111729694</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3286,10 +3273,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367501.3862919735</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R21" t="n">
-        <v>6871294.054900883</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3316,22 +3303,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3369,7 +3356,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111729473</v>
+        <v>111731274</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3402,11 +3389,7 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3420,10 +3403,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367342.880642174</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R22" t="n">
-        <v>6871669.024526398</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3450,27 +3433,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3508,10 +3486,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731060</v>
+        <v>111730985</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3520,25 +3498,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3551,10 +3529,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367494.0193026412</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R23" t="n">
-        <v>6871395.610869153</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3586,7 +3564,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3596,7 +3574,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3634,10 +3612,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111732650</v>
+        <v>111731309</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3646,29 +3624,33 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3677,10 +3659,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367499.9406743076</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R24" t="n">
-        <v>6871172.113255707</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3707,7 +3689,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3717,17 +3699,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
           <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3747,7 +3724,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3765,10 +3742,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111730457</v>
+        <v>111731060</v>
       </c>
       <c r="B25" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3781,29 +3758,25 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3812,10 +3785,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367515.5716414675</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R25" t="n">
-        <v>6871294.915694831</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3842,22 +3815,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3895,10 +3868,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730844</v>
+        <v>111731366</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3907,25 +3880,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3938,10 +3911,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367524.3844621138</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R26" t="n">
-        <v>6871315.297681119</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3968,22 +3941,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4003,7 +3976,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4021,10 +3994,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111731030</v>
+        <v>111730844</v>
       </c>
       <c r="B27" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4033,25 +4006,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4064,10 +4037,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367473.075432463</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R27" t="n">
-        <v>6871475.555632563</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4094,7 +4067,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4104,7 +4077,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4129,7 +4102,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4147,10 +4120,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111730525</v>
+        <v>111730046</v>
       </c>
       <c r="B28" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4159,25 +4132,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4194,10 +4167,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367583.9610761613</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R28" t="n">
-        <v>6871343.124249188</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4229,7 +4202,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4239,12 +4212,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4282,7 +4250,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111730480</v>
+        <v>111731021</v>
       </c>
       <c r="B29" t="n">
         <v>90666</v>
@@ -4325,10 +4293,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367528.9347990834</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R29" t="n">
-        <v>6871323.127923099</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4355,22 +4323,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4390,7 +4358,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4408,10 +4376,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111729509</v>
+        <v>111730457</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4420,25 +4388,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4455,10 +4423,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367351.5527010285</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R30" t="n">
-        <v>6871697.886848727</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4490,7 +4458,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4500,7 +4468,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4538,10 +4506,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111731006</v>
+        <v>111732650</v>
       </c>
       <c r="B31" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4550,25 +4518,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4581,10 +4549,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367374.3210188161</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R31" t="n">
-        <v>6871616.46209108</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4611,22 +4579,27 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4646,7 +4619,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4664,10 +4637,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730258</v>
+        <v>111730187</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4676,29 +4649,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4707,10 +4684,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367499.689386631</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R32" t="n">
-        <v>6871177.775549179</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4772,7 +4749,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4790,10 +4767,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111733035</v>
+        <v>111729372</v>
       </c>
       <c r="B33" t="n">
-        <v>8377</v>
+        <v>78081</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4802,47 +4779,45 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>229821</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367525.4248074447</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R33" t="n">
-        <v>6871378.373665834</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4869,22 +4844,27 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4904,7 +4884,22 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4922,10 +4917,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111729321</v>
+        <v>111730155</v>
       </c>
       <c r="B34" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4938,26 +4933,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4973,10 +4968,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367478.4289107045</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R34" t="n">
-        <v>6871540.344720463</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5038,7 +5033,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5056,10 +5051,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111730155</v>
+        <v>111729473</v>
       </c>
       <c r="B35" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5068,30 +5063,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5107,10 +5102,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367511.4922534205</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R35" t="n">
-        <v>6871287.067064899</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5142,7 +5137,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5152,7 +5147,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111732925</v>
+        <v>111732650</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>88489</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1296,21 +1296,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367522.3475011056</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R6" t="n">
-        <v>6871384.145631685</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1371,6 +1371,11 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1388,7 +1393,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1406,10 +1411,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111732570</v>
+        <v>111730937</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>88032</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1418,29 +1423,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6276</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1449,10 +1462,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367471.0424379559</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R7" t="n">
-        <v>6871338.570634114</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1479,27 +1492,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1537,7 +1545,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111731006</v>
+        <v>111730187</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1571,7 +1579,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1580,10 +1592,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367374.3210188161</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R8" t="n">
-        <v>6871616.46209108</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1610,22 +1622,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1645,7 +1657,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1663,7 +1675,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111729422</v>
+        <v>111730985</v>
       </c>
       <c r="B9" t="n">
         <v>90666</v>
@@ -1697,11 +1709,7 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1710,10 +1718,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367397.9777122263</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R9" t="n">
-        <v>6871654.631472632</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1740,22 +1748,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1793,10 +1801,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111730525</v>
+        <v>111731030</v>
       </c>
       <c r="B10" t="n">
-        <v>90712</v>
+        <v>90689</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1805,33 +1813,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>232140</v>
+        <v>5966</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1840,10 +1844,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367583.9610761613</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R10" t="n">
-        <v>6871343.124249188</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1870,7 +1874,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1880,17 +1884,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1928,10 +1927,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111730937</v>
+        <v>111730403</v>
       </c>
       <c r="B11" t="n">
-        <v>88032</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1940,32 +1939,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1979,10 +1974,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367427.0662824844</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R11" t="n">
-        <v>6871565.895031672</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2009,22 +2004,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2062,10 +2057,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111730480</v>
+        <v>111729372</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2074,41 +2069,45 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367528.9347990834</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R12" t="n">
-        <v>6871323.127923099</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2140,7 +2139,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2150,7 +2149,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2170,7 +2174,22 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2188,10 +2207,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111729621</v>
+        <v>111730457</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2200,25 +2219,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2235,10 +2254,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367399.194539216</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R13" t="n">
-        <v>6871661.648711029</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2270,7 +2289,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2280,7 +2299,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2318,10 +2337,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111730258</v>
+        <v>111730046</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2330,29 +2349,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2361,10 +2384,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367499.689386631</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R14" t="n">
-        <v>6871177.775549179</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2396,7 +2419,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2406,7 +2429,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2444,10 +2467,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111729321</v>
+        <v>111729473</v>
       </c>
       <c r="B15" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2456,30 +2479,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2495,10 +2518,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367478.4289107045</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R15" t="n">
-        <v>6871540.344720463</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2530,7 +2553,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2540,7 +2563,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2560,7 +2588,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2578,10 +2606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111729509</v>
+        <v>111731060</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2590,33 +2618,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2625,10 +2649,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367351.5527010285</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R16" t="n">
-        <v>6871697.886848727</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2655,22 +2679,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2708,10 +2732,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111731030</v>
+        <v>111731274</v>
       </c>
       <c r="B17" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2720,29 +2744,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2751,10 +2779,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367473.075432463</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R17" t="n">
-        <v>6871475.555632563</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2786,7 +2814,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2796,7 +2824,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2834,10 +2862,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111733035</v>
+        <v>111730216</v>
       </c>
       <c r="B18" t="n">
-        <v>8377</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2846,36 +2874,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106545</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2883,10 +2909,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367525.4248074447</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R18" t="n">
-        <v>6871378.373665834</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2913,22 +2939,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2966,10 +2992,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111730216</v>
+        <v>111729321</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2982,24 +3008,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3013,10 +3043,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367499.9040505511</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R19" t="n">
-        <v>6871171.172595749</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3048,7 +3078,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3058,7 +3088,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3078,7 +3108,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3096,10 +3126,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730403</v>
+        <v>111730525</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90712</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3108,25 +3138,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>232140</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -3143,10 +3173,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367509.5217049009</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R20" t="n">
-        <v>6871297.035335077</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3178,7 +3208,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3188,7 +3218,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3226,7 +3261,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111729694</v>
+        <v>111729509</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3273,10 +3308,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367376.3148749042</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R21" t="n">
-        <v>6871619.210274726</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3308,7 +3343,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3318,7 +3353,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3356,7 +3391,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111731274</v>
+        <v>111729422</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3403,10 +3438,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367536.2279934552</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R22" t="n">
-        <v>6871304.474127219</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3433,22 +3468,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3486,10 +3521,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111730985</v>
+        <v>111731366</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3498,25 +3533,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3529,10 +3564,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367353.8170817234</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R23" t="n">
-        <v>6871659.178617892</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3564,7 +3599,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3574,7 +3609,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3594,7 +3629,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3612,7 +3647,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731309</v>
+        <v>111731021</v>
       </c>
       <c r="B24" t="n">
         <v>90666</v>
@@ -3646,11 +3681,7 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3659,10 +3690,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367501.3862919735</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R24" t="n">
-        <v>6871294.054900883</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3694,7 +3725,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3704,7 +3735,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3724,7 +3755,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3742,10 +3773,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111731060</v>
+        <v>111731309</v>
       </c>
       <c r="B25" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3754,29 +3785,33 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3785,10 +3820,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367494.0193026412</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R25" t="n">
-        <v>6871395.610869153</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3820,7 +3855,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3830,7 +3865,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3868,10 +3903,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111731366</v>
+        <v>111731006</v>
       </c>
       <c r="B26" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3880,25 +3915,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3911,10 +3946,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367478.0523349147</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R26" t="n">
-        <v>6871421.667217744</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3946,7 +3981,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3956,7 +3991,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3976,7 +4011,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3994,10 +4029,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111730844</v>
+        <v>111732925</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4006,25 +4041,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4037,10 +4072,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367524.3844621138</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R27" t="n">
-        <v>6871315.297681119</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4067,22 +4102,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4102,7 +4137,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4120,10 +4155,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111730046</v>
+        <v>111733035</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4136,30 +4171,32 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4167,10 +4204,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367448.1597365885</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R28" t="n">
-        <v>6871417.179379676</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4197,22 +4234,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4250,7 +4287,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731021</v>
+        <v>111730844</v>
       </c>
       <c r="B29" t="n">
         <v>90666</v>
@@ -4293,10 +4330,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367473.075432463</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R29" t="n">
-        <v>6871475.555632563</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4323,7 +4360,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4333,7 +4370,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4358,7 +4395,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4376,10 +4413,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730457</v>
+        <v>111730480</v>
       </c>
       <c r="B30" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4388,33 +4425,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4423,10 +4456,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367515.5716414675</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R30" t="n">
-        <v>6871294.915694831</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4506,10 +4539,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111732650</v>
+        <v>111730258</v>
       </c>
       <c r="B31" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4522,21 +4555,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4549,10 +4582,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367499.9406743076</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R31" t="n">
-        <v>6871172.113255707</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4579,27 +4612,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4619,7 +4647,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4637,7 +4665,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730187</v>
+        <v>111729694</v>
       </c>
       <c r="B32" t="n">
         <v>90666</v>
@@ -4684,10 +4712,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367479.9610695003</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R32" t="n">
-        <v>6871179.95684042</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4719,7 +4747,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4729,7 +4757,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4749,7 +4777,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4767,10 +4795,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111729372</v>
+        <v>111730155</v>
       </c>
       <c r="B33" t="n">
-        <v>78081</v>
+        <v>90682</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4783,41 +4811,45 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>229821</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367457.2767518484</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R33" t="n">
-        <v>6871554.356343843</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4849,7 +4881,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4859,12 +4891,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4884,22 +4911,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4917,10 +4929,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111730155</v>
+        <v>111729621</v>
       </c>
       <c r="B34" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4929,32 +4941,28 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4968,10 +4976,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367511.4922534205</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R34" t="n">
-        <v>6871287.067064899</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5003,7 +5011,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5013,7 +5021,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5051,10 +5059,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111729473</v>
+        <v>111732570</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5063,37 +5071,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367342.880642174</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R35" t="n">
-        <v>6871669.024526398</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5132,27 +5132,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe</t>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111732650</v>
+        <v>111730155</v>
       </c>
       <c r="B6" t="n">
-        <v>88489</v>
+        <v>90682</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1296,25 +1296,33 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1323,10 +1331,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367499.9406743076</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R6" t="n">
-        <v>6871172.113255707</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1353,27 +1361,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1393,7 +1396,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1411,10 +1414,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111730937</v>
+        <v>111730187</v>
       </c>
       <c r="B7" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1423,32 +1426,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1462,10 +1461,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367427.0662824844</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R7" t="n">
-        <v>6871565.895031672</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1492,22 +1491,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1527,7 +1526,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1545,7 +1544,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111730187</v>
+        <v>111730844</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1579,11 +1578,7 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1592,10 +1587,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367479.9610695003</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R8" t="n">
-        <v>6871179.95684042</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1627,7 +1622,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1637,7 +1632,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1657,7 +1652,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1675,10 +1670,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111730985</v>
+        <v>111732570</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1687,25 +1682,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1718,10 +1713,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367353.8170817234</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R9" t="n">
-        <v>6871659.178617892</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1748,22 +1743,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1801,10 +1801,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111731030</v>
+        <v>111731274</v>
       </c>
       <c r="B10" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1813,29 +1813,33 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1844,10 +1848,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367473.075432463</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R10" t="n">
-        <v>6871475.555632563</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1879,7 +1883,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1889,7 +1893,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1927,10 +1931,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111730403</v>
+        <v>111729621</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1939,25 +1943,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1974,10 +1978,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367509.5217049009</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R11" t="n">
-        <v>6871297.035335077</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2009,7 +2013,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2019,7 +2023,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2057,10 +2061,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111729372</v>
+        <v>111733035</v>
       </c>
       <c r="B12" t="n">
-        <v>78081</v>
+        <v>8377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2069,45 +2073,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367457.2767518484</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R12" t="n">
-        <v>6871554.356343843</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2134,27 +2140,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2174,22 +2175,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2207,10 +2193,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730457</v>
+        <v>111730046</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2219,25 +2205,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2254,10 +2240,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367515.5716414675</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R13" t="n">
-        <v>6871294.915694831</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2289,7 +2275,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2299,7 +2285,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2337,7 +2323,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111730046</v>
+        <v>111729694</v>
       </c>
       <c r="B14" t="n">
         <v>90666</v>
@@ -2384,10 +2370,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367448.1597365885</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R14" t="n">
-        <v>6871417.179379676</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2467,7 +2453,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111729473</v>
+        <v>111730480</v>
       </c>
       <c r="B15" t="n">
         <v>90666</v>
@@ -2500,16 +2486,8 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2518,10 +2496,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367342.880642174</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R15" t="n">
-        <v>6871669.024526398</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2553,7 +2531,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2563,12 +2541,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2606,10 +2579,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111731060</v>
+        <v>111729422</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2618,29 +2591,33 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2649,10 +2626,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367494.0193026412</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R16" t="n">
-        <v>6871395.610869153</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2679,22 +2656,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2732,7 +2709,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111731274</v>
+        <v>111729473</v>
       </c>
       <c r="B17" t="n">
         <v>90666</v>
@@ -2765,7 +2742,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2779,10 +2760,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367536.2279934552</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R17" t="n">
-        <v>6871304.474127219</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2809,22 +2790,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2862,10 +2848,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730216</v>
+        <v>111730985</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2874,33 +2860,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2909,10 +2891,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367499.9040505511</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R18" t="n">
-        <v>6871171.172595749</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2939,22 +2921,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2992,10 +2974,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111729321</v>
+        <v>111729509</v>
       </c>
       <c r="B19" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3004,32 +2986,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3043,10 +3021,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367478.4289107045</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R19" t="n">
-        <v>6871540.344720463</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3078,7 +3056,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3088,7 +3066,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3108,7 +3086,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3126,10 +3104,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730525</v>
+        <v>111730258</v>
       </c>
       <c r="B20" t="n">
-        <v>90712</v>
+        <v>90660</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3138,33 +3116,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>232140</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3173,10 +3147,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367583.9610761613</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R20" t="n">
-        <v>6871343.124249188</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3208,7 +3182,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3218,12 +3192,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3261,10 +3230,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111729509</v>
+        <v>111729372</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3273,45 +3242,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367351.5527010285</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R21" t="n">
-        <v>6871697.886848727</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3356,6 +3325,11 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3373,7 +3347,22 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3391,10 +3380,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111729422</v>
+        <v>111730525</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3403,25 +3392,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3438,10 +3427,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367397.9777122263</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R22" t="n">
-        <v>6871654.631472632</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3473,7 +3462,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3483,7 +3472,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3521,10 +3515,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731366</v>
+        <v>111731060</v>
       </c>
       <c r="B23" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3537,21 +3531,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3564,10 +3558,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367478.0523349147</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R23" t="n">
-        <v>6871421.667217744</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3599,7 +3593,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3609,7 +3603,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3629,7 +3623,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3647,7 +3641,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731021</v>
+        <v>111731309</v>
       </c>
       <c r="B24" t="n">
         <v>90666</v>
@@ -3681,7 +3675,11 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3690,10 +3688,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367473.075432463</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R24" t="n">
-        <v>6871475.555632563</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3725,7 +3723,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3735,7 +3733,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3755,7 +3753,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3773,10 +3771,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111731309</v>
+        <v>111729321</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3785,28 +3783,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3820,10 +3822,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367501.3862919735</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R25" t="n">
-        <v>6871294.054900883</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3850,22 +3852,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3885,7 +3887,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3903,10 +3905,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111731006</v>
+        <v>111730216</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3915,29 +3917,33 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3946,10 +3952,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367374.3210188161</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R26" t="n">
-        <v>6871616.46209108</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3976,22 +3982,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4029,10 +4035,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111732925</v>
+        <v>111731006</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4041,25 +4047,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4072,10 +4078,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367522.3475011056</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R27" t="n">
-        <v>6871384.145631685</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4102,22 +4108,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4137,7 +4143,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111733035</v>
+        <v>111732650</v>
       </c>
       <c r="B28" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4167,36 +4173,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367525.4248074447</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R28" t="n">
-        <v>6871378.373665834</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4249,7 +4249,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4269,7 +4274,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4287,10 +4292,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111730844</v>
+        <v>111731366</v>
       </c>
       <c r="B29" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4299,25 +4304,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4330,10 +4335,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367524.3844621138</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R29" t="n">
-        <v>6871315.297681119</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4360,22 +4365,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4395,7 +4400,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4413,10 +4418,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730480</v>
+        <v>111731030</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4425,25 +4430,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4456,10 +4461,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367528.9347990834</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R30" t="n">
-        <v>6871323.127923099</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4486,22 +4491,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4539,10 +4544,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730258</v>
+        <v>111730403</v>
       </c>
       <c r="B31" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4555,25 +4560,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4582,10 +4591,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367499.689386631</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R31" t="n">
-        <v>6871177.775549179</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4665,10 +4674,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111729694</v>
+        <v>111730937</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4677,28 +4686,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4712,10 +4725,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367376.3148749042</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R32" t="n">
-        <v>6871619.210274726</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4742,22 +4755,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4795,10 +4808,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111730155</v>
+        <v>111731021</v>
       </c>
       <c r="B33" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4807,37 +4820,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4846,10 +4851,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367511.4922534205</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R33" t="n">
-        <v>6871287.067064899</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4876,22 +4881,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4911,7 +4916,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4929,10 +4934,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111729621</v>
+        <v>111730457</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4941,25 +4946,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4976,10 +4981,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367399.194539216</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R34" t="n">
-        <v>6871661.648711029</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5011,7 +5016,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5021,7 +5026,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5059,10 +5064,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111732570</v>
+        <v>111732925</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>78107</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5075,21 +5080,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5102,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367471.0424379559</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R35" t="n">
-        <v>6871338.570634114</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5150,11 +5155,6 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730155</v>
+        <v>111730258</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1296,33 +1296,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1331,10 +1323,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367511.4922534205</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R6" t="n">
-        <v>6871287.067064899</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1366,7 +1358,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1376,7 +1368,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1414,10 +1406,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111730187</v>
+        <v>111732925</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1426,33 +1418,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1461,10 +1449,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367479.9610695003</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R7" t="n">
-        <v>6871179.95684042</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1491,22 +1479,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1526,7 +1514,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1544,7 +1532,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111730844</v>
+        <v>111730985</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1587,10 +1575,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367524.3844621138</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R8" t="n">
-        <v>6871315.297681119</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1617,7 +1605,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1627,7 +1615,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1652,7 +1640,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1670,10 +1658,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111732570</v>
+        <v>111729694</v>
       </c>
       <c r="B9" t="n">
-        <v>78579</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1682,29 +1670,33 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1713,10 +1705,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367471.0424379559</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R9" t="n">
-        <v>6871338.570634114</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1743,27 +1735,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1801,7 +1788,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111731274</v>
+        <v>111730480</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1835,11 +1822,7 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1848,10 +1831,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367536.2279934552</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R10" t="n">
-        <v>6871304.474127219</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1878,22 +1861,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1931,7 +1914,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111729621</v>
+        <v>111730844</v>
       </c>
       <c r="B11" t="n">
         <v>90666</v>
@@ -1965,11 +1948,7 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1978,10 +1957,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367399.194539216</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R11" t="n">
-        <v>6871661.648711029</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2013,7 +1992,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2023,7 +2002,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2043,7 +2022,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2061,10 +2040,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111733035</v>
+        <v>111731021</v>
       </c>
       <c r="B12" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2077,32 +2056,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2110,10 +2083,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367525.4248074447</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R12" t="n">
-        <v>6871378.373665834</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2140,22 +2113,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2175,7 +2148,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2193,10 +2166,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730046</v>
+        <v>111730403</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2205,25 +2178,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2240,10 +2213,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367448.1597365885</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R13" t="n">
-        <v>6871417.179379676</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2275,7 +2248,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2285,7 +2258,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2323,10 +2296,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111729694</v>
+        <v>111731030</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2335,33 +2308,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2370,10 +2339,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367376.3148749042</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R14" t="n">
-        <v>6871619.210274726</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2400,22 +2369,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2453,10 +2422,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111730480</v>
+        <v>111732650</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2465,25 +2434,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2496,10 +2465,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367528.9347990834</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R15" t="n">
-        <v>6871323.127923099</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2526,22 +2495,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2561,7 +2535,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2579,10 +2553,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111729422</v>
+        <v>111730216</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2591,25 +2565,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2626,10 +2600,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367397.9777122263</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R16" t="n">
-        <v>6871654.631472632</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2661,7 +2635,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2671,7 +2645,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2709,10 +2683,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111729473</v>
+        <v>111730457</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2721,32 +2695,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2760,10 +2730,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367342.880642174</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R17" t="n">
-        <v>6871669.024526398</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2795,7 +2765,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2805,12 +2775,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2848,10 +2813,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730985</v>
+        <v>111733035</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2864,26 +2829,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2891,10 +2862,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367353.8170817234</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R18" t="n">
-        <v>6871659.178617892</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2921,22 +2892,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2974,7 +2945,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111729509</v>
+        <v>111729473</v>
       </c>
       <c r="B19" t="n">
         <v>90666</v>
@@ -3007,7 +2978,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3021,10 +2996,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367351.5527010285</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R19" t="n">
-        <v>6871697.886848727</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3067,6 +3042,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3104,10 +3084,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730258</v>
+        <v>111729321</v>
       </c>
       <c r="B20" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3120,25 +3100,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3147,10 +3135,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367499.689386631</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R20" t="n">
-        <v>6871177.775549179</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3182,7 +3170,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3192,7 +3180,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3212,7 +3200,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3380,10 +3368,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111730525</v>
+        <v>111729509</v>
       </c>
       <c r="B22" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3392,25 +3380,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3427,10 +3415,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367583.9610761613</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R22" t="n">
-        <v>6871343.124249188</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3462,7 +3450,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3472,12 +3460,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3515,10 +3498,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731060</v>
+        <v>111731274</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3527,29 +3510,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3558,10 +3545,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367494.0193026412</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R23" t="n">
-        <v>6871395.610869153</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3593,7 +3580,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3603,7 +3590,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3641,7 +3628,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731309</v>
+        <v>111731006</v>
       </c>
       <c r="B24" t="n">
         <v>90666</v>
@@ -3675,11 +3662,7 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3688,10 +3671,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367501.3862919735</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R24" t="n">
-        <v>6871294.054900883</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3723,7 +3706,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3733,7 +3716,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3771,10 +3754,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111729321</v>
+        <v>111729422</v>
       </c>
       <c r="B25" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3783,32 +3766,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3822,10 +3801,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367478.4289107045</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R25" t="n">
-        <v>6871540.344720463</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3857,7 +3836,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3867,7 +3846,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3887,7 +3866,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3905,10 +3884,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730216</v>
+        <v>111730046</v>
       </c>
       <c r="B26" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3917,25 +3896,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3952,10 +3931,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367499.9040505511</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R26" t="n">
-        <v>6871171.172595749</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3987,7 +3966,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3997,7 +3976,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4035,7 +4014,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111731006</v>
+        <v>111729621</v>
       </c>
       <c r="B27" t="n">
         <v>90666</v>
@@ -4069,7 +4048,11 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4078,10 +4061,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367374.3210188161</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R27" t="n">
-        <v>6871616.46209108</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4108,22 +4091,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4161,10 +4144,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111732650</v>
+        <v>111730525</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>90712</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4173,29 +4156,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>232140</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -4204,10 +4191,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367499.9406743076</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R28" t="n">
-        <v>6871172.113255707</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4234,27 +4221,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Växer under silverved</t>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4274,7 +4261,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4418,10 +4405,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111731030</v>
+        <v>111732570</v>
       </c>
       <c r="B30" t="n">
-        <v>90689</v>
+        <v>78579</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4434,21 +4421,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5966</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4461,10 +4448,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367473.075432463</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R30" t="n">
-        <v>6871475.555632563</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4491,22 +4478,27 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4544,10 +4536,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730403</v>
+        <v>111730155</v>
       </c>
       <c r="B31" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4560,24 +4552,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4591,10 +4587,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367509.5217049009</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R31" t="n">
-        <v>6871297.035335077</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4626,7 +4622,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4636,7 +4632,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4674,10 +4670,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730937</v>
+        <v>111730187</v>
       </c>
       <c r="B32" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4686,32 +4682,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4725,10 +4717,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367427.0662824844</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R32" t="n">
-        <v>6871565.895031672</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4755,22 +4747,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4790,7 +4782,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4808,10 +4800,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111731021</v>
+        <v>111731060</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4820,25 +4812,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4851,10 +4843,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367473.075432463</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R33" t="n">
-        <v>6871475.555632563</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4886,7 +4878,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4896,7 +4888,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4916,7 +4908,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4934,10 +4926,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111730457</v>
+        <v>111731309</v>
       </c>
       <c r="B34" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4946,25 +4938,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4981,10 +4973,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367515.5716414675</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R34" t="n">
-        <v>6871294.915694831</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5011,22 +5003,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5064,10 +5056,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111732925</v>
+        <v>111730937</v>
       </c>
       <c r="B35" t="n">
-        <v>78107</v>
+        <v>88032</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5076,29 +5068,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>6276</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367522.3475011056</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R35" t="n">
-        <v>6871384.145631685</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5137,22 +5137,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730258</v>
+        <v>111730403</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1296,25 +1296,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1323,10 +1327,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367499.689386631</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R6" t="n">
-        <v>6871177.775549179</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1406,10 +1410,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111732925</v>
+        <v>111729473</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1418,29 +1422,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1449,10 +1461,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367522.3475011056</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R7" t="n">
-        <v>6871384.145631685</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1479,22 +1491,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1514,7 +1531,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1532,7 +1549,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111730985</v>
+        <v>111731309</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1566,7 +1583,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1575,10 +1596,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367353.8170817234</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R8" t="n">
-        <v>6871659.178617892</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1610,7 +1631,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1620,7 +1641,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1658,10 +1679,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111729694</v>
+        <v>111730457</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1670,25 +1691,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1705,10 +1726,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367376.3148749042</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R9" t="n">
-        <v>6871619.210274726</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1740,7 +1761,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1750,7 +1771,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1788,10 +1809,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111730480</v>
+        <v>111732925</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1800,25 +1821,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1831,10 +1852,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367528.9347990834</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R10" t="n">
-        <v>6871323.127923099</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1861,22 +1882,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1896,7 +1917,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1914,10 +1935,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111730844</v>
+        <v>111729321</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1926,29 +1947,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1957,10 +1986,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367524.3844621138</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R11" t="n">
-        <v>6871315.297681119</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1992,7 +2021,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2002,7 +2031,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2022,7 +2051,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2166,10 +2195,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730403</v>
+        <v>111730216</v>
       </c>
       <c r="B13" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2182,21 +2211,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2213,10 +2242,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367509.5217049009</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R13" t="n">
-        <v>6871297.035335077</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2296,10 +2325,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111731030</v>
+        <v>111729621</v>
       </c>
       <c r="B14" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2308,29 +2337,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2339,10 +2372,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367473.075432463</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R14" t="n">
-        <v>6871475.555632563</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2369,22 +2402,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2422,10 +2455,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111732650</v>
+        <v>111730844</v>
       </c>
       <c r="B15" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2434,25 +2467,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2465,10 +2498,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367499.9406743076</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R15" t="n">
-        <v>6871172.113255707</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2495,27 +2528,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2535,7 +2563,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2553,10 +2581,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111730216</v>
+        <v>111731006</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2565,33 +2593,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2600,10 +2624,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367499.9040505511</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R16" t="n">
-        <v>6871171.172595749</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2630,22 +2654,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2683,10 +2707,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111730457</v>
+        <v>111731274</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2695,25 +2719,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2730,10 +2754,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367515.5716414675</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R17" t="n">
-        <v>6871294.915694831</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2760,22 +2784,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2813,10 +2837,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111733035</v>
+        <v>111732570</v>
       </c>
       <c r="B18" t="n">
-        <v>8377</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2825,36 +2849,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106545</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2862,10 +2880,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367525.4248074447</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R18" t="n">
-        <v>6871378.373665834</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2897,7 +2915,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2907,7 +2925,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2945,10 +2968,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111729473</v>
+        <v>111731366</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2957,37 +2980,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2996,10 +3011,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367342.880642174</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R19" t="n">
-        <v>6871669.024526398</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3026,27 +3041,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3066,7 +3076,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3084,10 +3094,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111729321</v>
+        <v>111730480</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3096,37 +3106,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3135,10 +3137,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367478.4289107045</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R20" t="n">
-        <v>6871540.344720463</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3170,7 +3172,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3180,7 +3182,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3200,7 +3202,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3218,10 +3220,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111729372</v>
+        <v>111730187</v>
       </c>
       <c r="B21" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3230,45 +3232,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367457.2767518484</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R21" t="n">
-        <v>6871554.356343843</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3300,7 +3302,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3310,12 +3312,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3335,22 +3332,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3368,10 +3350,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111729509</v>
+        <v>111730937</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3380,28 +3362,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3415,10 +3401,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367351.5527010285</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R22" t="n">
-        <v>6871697.886848727</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3445,22 +3431,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3498,10 +3484,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731274</v>
+        <v>111731030</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3510,33 +3496,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3545,10 +3527,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367536.2279934552</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R23" t="n">
-        <v>6871304.474127219</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3580,7 +3562,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3590,7 +3572,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3628,10 +3610,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731006</v>
+        <v>111732650</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3640,25 +3622,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3671,10 +3653,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367374.3210188161</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R24" t="n">
-        <v>6871616.46209108</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3701,22 +3683,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3736,7 +3723,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3754,7 +3741,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111729422</v>
+        <v>111730985</v>
       </c>
       <c r="B25" t="n">
         <v>90666</v>
@@ -3788,11 +3775,7 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3801,10 +3784,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367397.9777122263</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R25" t="n">
-        <v>6871654.631472632</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3831,22 +3814,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4014,7 +3997,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111729621</v>
+        <v>111729422</v>
       </c>
       <c r="B27" t="n">
         <v>90666</v>
@@ -4061,10 +4044,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367399.194539216</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R27" t="n">
-        <v>6871661.648711029</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4096,7 +4079,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4106,7 +4089,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4144,10 +4127,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111730525</v>
+        <v>111729372</v>
       </c>
       <c r="B28" t="n">
-        <v>90712</v>
+        <v>78081</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4156,45 +4139,45 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>232140</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367583.9610761613</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R28" t="n">
-        <v>6871343.124249188</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4226,7 +4209,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4236,12 +4219,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4261,7 +4244,22 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4279,10 +4277,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731366</v>
+        <v>111731060</v>
       </c>
       <c r="B29" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4295,21 +4293,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4322,10 +4320,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367478.0523349147</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R29" t="n">
-        <v>6871421.667217744</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4357,7 +4355,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4367,7 +4365,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4387,7 +4385,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4405,10 +4403,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111732570</v>
+        <v>111729509</v>
       </c>
       <c r="B30" t="n">
-        <v>78579</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4417,29 +4415,33 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4448,10 +4450,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367471.0424379559</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R30" t="n">
-        <v>6871338.570634114</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4478,27 +4480,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4536,10 +4533,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730155</v>
+        <v>111733035</v>
       </c>
       <c r="B31" t="n">
-        <v>90682</v>
+        <v>8377</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4548,38 +4545,36 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4587,10 +4582,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367511.4922534205</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R31" t="n">
-        <v>6871287.067064899</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4617,22 +4612,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4670,10 +4665,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730187</v>
+        <v>111730258</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4682,33 +4677,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4717,10 +4708,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367479.9610695003</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R32" t="n">
-        <v>6871179.95684042</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4782,7 +4773,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4800,10 +4791,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111731060</v>
+        <v>111729694</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4812,29 +4803,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4843,10 +4838,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367494.0193026412</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R33" t="n">
-        <v>6871395.610869153</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4873,22 +4868,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4926,10 +4921,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111731309</v>
+        <v>111730525</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4938,25 +4933,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4973,10 +4968,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367501.3862919735</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R34" t="n">
-        <v>6871294.054900883</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5003,22 +4998,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5056,10 +5056,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111730937</v>
+        <v>111730155</v>
       </c>
       <c r="B35" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5068,30 +5068,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367427.0662824844</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R35" t="n">
-        <v>6871565.895031672</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5137,22 +5137,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730403</v>
+        <v>111730844</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,33 +1292,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1327,10 +1323,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367509.5217049009</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R6" t="n">
-        <v>6871297.035335077</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1362,7 +1358,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1392,7 +1388,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1410,10 +1406,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111729473</v>
+        <v>111729321</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1422,30 +1418,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1461,10 +1457,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367342.880642174</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R7" t="n">
-        <v>6871669.024526398</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1496,7 +1492,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1506,12 +1502,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1531,7 +1522,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1549,10 +1540,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111731309</v>
+        <v>111730525</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1561,25 +1552,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1596,10 +1587,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367501.3862919735</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R8" t="n">
-        <v>6871294.054900883</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1626,22 +1617,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1679,10 +1675,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111730457</v>
+        <v>111732925</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1695,29 +1691,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1726,10 +1718,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367515.5716414675</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R9" t="n">
-        <v>6871294.915694831</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1756,22 +1748,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1809,10 +1801,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111732925</v>
+        <v>111730258</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1825,21 +1817,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1852,10 +1844,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367522.3475011056</v>
+        <v>367499.689386631</v>
       </c>
       <c r="R10" t="n">
-        <v>6871384.145631685</v>
+        <v>6871177.775549179</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1882,22 +1874,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1917,7 +1909,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1935,10 +1927,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111729321</v>
+        <v>111729422</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1947,32 +1939,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1986,10 +1974,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367478.4289107045</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R11" t="n">
-        <v>6871540.344720463</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2021,7 +2009,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2031,7 +2019,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2051,7 +2039,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2069,10 +2057,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111731021</v>
+        <v>111730216</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2081,29 +2069,33 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -2112,10 +2104,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367473.075432463</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R12" t="n">
-        <v>6871475.555632563</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2142,22 +2134,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2177,7 +2169,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2195,10 +2187,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730216</v>
+        <v>111731021</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2207,33 +2199,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2242,10 +2230,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367499.9040505511</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R13" t="n">
-        <v>6871171.172595749</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2272,22 +2260,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2307,7 +2295,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2325,7 +2313,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111729621</v>
+        <v>111731309</v>
       </c>
       <c r="B14" t="n">
         <v>90666</v>
@@ -2372,10 +2360,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367399.194539216</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R14" t="n">
-        <v>6871661.648711029</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2402,22 +2390,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2455,7 +2443,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111730844</v>
+        <v>111729509</v>
       </c>
       <c r="B15" t="n">
         <v>90666</v>
@@ -2489,7 +2477,11 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2498,10 +2490,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367524.3844621138</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R15" t="n">
-        <v>6871315.297681119</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2533,7 +2525,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2543,7 +2535,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2563,7 +2555,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2581,7 +2573,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111731006</v>
+        <v>111730480</v>
       </c>
       <c r="B16" t="n">
         <v>90666</v>
@@ -2624,10 +2616,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367374.3210188161</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R16" t="n">
-        <v>6871616.46209108</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2654,22 +2646,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2707,10 +2699,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111731274</v>
+        <v>111730457</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2719,25 +2711,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2754,10 +2746,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367536.2279934552</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R17" t="n">
-        <v>6871304.474127219</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2784,22 +2776,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2837,10 +2829,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111732570</v>
+        <v>111732650</v>
       </c>
       <c r="B18" t="n">
-        <v>78579</v>
+        <v>88489</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2853,21 +2845,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2880,10 +2872,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367471.0424379559</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R18" t="n">
-        <v>6871338.570634114</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2930,7 +2922,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Växer på gammal sälg</t>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2950,7 +2942,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3094,7 +3086,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730480</v>
+        <v>111729694</v>
       </c>
       <c r="B20" t="n">
         <v>90666</v>
@@ -3128,7 +3120,11 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3137,10 +3133,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367528.9347990834</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R20" t="n">
-        <v>6871323.127923099</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3172,7 +3168,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3182,7 +3178,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3220,10 +3216,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111730187</v>
+        <v>111730403</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3232,25 +3228,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3267,10 +3263,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367479.9610695003</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R21" t="n">
-        <v>6871179.95684042</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3332,7 +3328,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3350,10 +3346,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111730937</v>
+        <v>111731274</v>
       </c>
       <c r="B22" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3362,32 +3358,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3401,10 +3393,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367427.0662824844</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R22" t="n">
-        <v>6871565.895031672</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3436,7 +3428,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3446,7 +3438,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3484,10 +3476,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111731030</v>
+        <v>111729621</v>
       </c>
       <c r="B23" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3496,29 +3488,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3527,10 +3523,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367473.075432463</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R23" t="n">
-        <v>6871475.555632563</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3557,22 +3553,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3610,10 +3606,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111732650</v>
+        <v>111732570</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>78579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3626,21 +3622,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3653,10 +3649,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367499.9406743076</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R24" t="n">
-        <v>6871172.113255707</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3703,7 +3699,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Växer under silverved</t>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3741,10 +3737,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111730985</v>
+        <v>111730937</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3753,29 +3749,37 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3784,10 +3788,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367353.8170817234</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R25" t="n">
-        <v>6871659.178617892</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3867,10 +3871,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730046</v>
+        <v>111730155</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3879,28 +3883,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3914,10 +3922,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367448.1597365885</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R26" t="n">
-        <v>6871417.179379676</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3949,7 +3957,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3959,7 +3967,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3997,10 +4005,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111729422</v>
+        <v>111733035</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4013,30 +4021,32 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4044,10 +4054,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367397.9777122263</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R27" t="n">
-        <v>6871654.631472632</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4074,22 +4084,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4277,10 +4287,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731060</v>
+        <v>111731030</v>
       </c>
       <c r="B29" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4293,21 +4303,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4320,10 +4330,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367494.0193026412</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R29" t="n">
-        <v>6871395.610869153</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4355,7 +4365,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4365,7 +4375,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4403,7 +4413,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111729509</v>
+        <v>111730046</v>
       </c>
       <c r="B30" t="n">
         <v>90666</v>
@@ -4450,10 +4460,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367351.5527010285</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R30" t="n">
-        <v>6871697.886848727</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4485,7 +4495,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4495,7 +4505,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4533,10 +4543,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111733035</v>
+        <v>111731006</v>
       </c>
       <c r="B31" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4549,32 +4559,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4582,10 +4586,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367525.4248074447</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R31" t="n">
-        <v>6871378.373665834</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4612,22 +4616,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4665,10 +4669,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730258</v>
+        <v>111731060</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4681,21 +4685,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4708,10 +4712,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367499.689386631</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R32" t="n">
-        <v>6871177.775549179</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4738,22 +4742,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4791,7 +4795,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111729694</v>
+        <v>111729473</v>
       </c>
       <c r="B33" t="n">
         <v>90666</v>
@@ -4824,7 +4828,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4838,10 +4846,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367376.3148749042</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R33" t="n">
-        <v>6871619.210274726</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4873,7 +4881,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4883,7 +4891,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4921,10 +4934,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111730525</v>
+        <v>111730985</v>
       </c>
       <c r="B34" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4933,33 +4946,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4968,10 +4977,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367583.9610761613</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R34" t="n">
-        <v>6871343.124249188</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4998,7 +5007,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -5008,17 +5017,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
           <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5056,10 +5060,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111730155</v>
+        <v>111730187</v>
       </c>
       <c r="B35" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5068,32 +5072,28 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367511.4922534205</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R35" t="n">
-        <v>6871287.067064899</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -2443,10 +2443,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111729509</v>
+        <v>111732650</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2455,33 +2455,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2490,10 +2486,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367351.5527010285</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R15" t="n">
-        <v>6871697.886848727</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2520,22 +2516,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2555,7 +2556,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2573,7 +2574,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111730480</v>
+        <v>111729509</v>
       </c>
       <c r="B16" t="n">
         <v>90666</v>
@@ -2607,7 +2608,11 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2616,10 +2621,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367528.9347990834</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R16" t="n">
-        <v>6871323.127923099</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2651,7 +2656,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2661,7 +2666,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2699,10 +2704,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111730457</v>
+        <v>111730480</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2711,33 +2716,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2746,10 +2747,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367515.5716414675</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R17" t="n">
-        <v>6871294.915694831</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2829,10 +2830,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111732650</v>
+        <v>111730457</v>
       </c>
       <c r="B18" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2845,25 +2846,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2872,10 +2877,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367499.9406743076</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R18" t="n">
-        <v>6871172.113255707</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2902,27 +2907,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111730937</v>
+        <v>111730155</v>
       </c>
       <c r="B25" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3749,30 +3749,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3788,10 +3788,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367427.0662824844</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R25" t="n">
-        <v>6871565.895031672</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3818,22 +3818,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3871,10 +3871,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730155</v>
+        <v>111733035</v>
       </c>
       <c r="B26" t="n">
-        <v>90682</v>
+        <v>8377</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3883,38 +3883,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2059</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3922,10 +3920,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367511.4922534205</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R26" t="n">
-        <v>6871287.067064899</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3952,22 +3950,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4005,10 +4003,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111733035</v>
+        <v>111730937</v>
       </c>
       <c r="B27" t="n">
-        <v>8377</v>
+        <v>88032</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4017,36 +4015,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>6276</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367525.4248074447</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R27" t="n">
-        <v>6871378.373665834</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730844</v>
+        <v>111730216</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,29 +1292,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1323,10 +1327,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367524.3844621138</v>
+        <v>367499.9040505511</v>
       </c>
       <c r="R6" t="n">
-        <v>6871315.297681119</v>
+        <v>6871171.172595749</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1358,7 +1362,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1368,7 +1372,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1388,7 +1392,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1406,10 +1410,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111729321</v>
+        <v>111729621</v>
       </c>
       <c r="B7" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1418,32 +1422,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367478.4289107045</v>
+        <v>367399.194539216</v>
       </c>
       <c r="R7" t="n">
-        <v>6871540.344720463</v>
+        <v>6871661.648711029</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111730525</v>
+        <v>111731030</v>
       </c>
       <c r="B8" t="n">
-        <v>90712</v>
+        <v>90689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1552,33 +1552,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>232140</v>
+        <v>5966</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1587,10 +1583,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367583.9610761613</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R8" t="n">
-        <v>6871343.124249188</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1617,7 +1613,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1627,17 +1623,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1675,10 +1666,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111732925</v>
+        <v>111732650</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>88489</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1691,21 +1682,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1718,10 +1709,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367522.3475011056</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R9" t="n">
-        <v>6871384.145631685</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1766,6 +1757,11 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1783,7 +1779,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1927,7 +1923,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111729422</v>
+        <v>111731309</v>
       </c>
       <c r="B11" t="n">
         <v>90666</v>
@@ -1974,10 +1970,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367397.9777122263</v>
+        <v>367501.3862919735</v>
       </c>
       <c r="R11" t="n">
-        <v>6871654.631472632</v>
+        <v>6871294.054900883</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2004,22 +2000,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2057,10 +2053,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111730216</v>
+        <v>111730403</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2073,21 +2069,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2104,10 +2100,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367499.9040505511</v>
+        <v>367509.5217049009</v>
       </c>
       <c r="R12" t="n">
-        <v>6871171.172595749</v>
+        <v>6871297.035335077</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2187,10 +2183,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111731021</v>
+        <v>111730457</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2199,29 +2195,33 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367473.075432463</v>
+        <v>367515.5716414675</v>
       </c>
       <c r="R13" t="n">
-        <v>6871475.555632563</v>
+        <v>6871294.915694831</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2260,22 +2260,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111731309</v>
+        <v>111731060</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2325,33 +2325,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2360,10 +2356,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367501.3862919735</v>
+        <v>367494.0193026412</v>
       </c>
       <c r="R14" t="n">
-        <v>6871294.054900883</v>
+        <v>6871395.610869153</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2395,7 +2391,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2405,7 +2401,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2443,10 +2439,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111732650</v>
+        <v>111732925</v>
       </c>
       <c r="B15" t="n">
-        <v>88489</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2459,21 +2455,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2486,10 +2482,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367499.9406743076</v>
+        <v>367522.3475011056</v>
       </c>
       <c r="R15" t="n">
-        <v>6871172.113255707</v>
+        <v>6871384.145631685</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2534,11 +2530,6 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2556,7 +2547,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2574,10 +2565,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111729509</v>
+        <v>111732570</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2586,33 +2577,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2621,10 +2608,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367351.5527010285</v>
+        <v>367471.0424379559</v>
       </c>
       <c r="R16" t="n">
-        <v>6871697.886848727</v>
+        <v>6871338.570634114</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2651,22 +2638,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2704,10 +2696,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111730480</v>
+        <v>111730155</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2716,29 +2708,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367528.9347990834</v>
+        <v>367511.4922534205</v>
       </c>
       <c r="R17" t="n">
-        <v>6871323.127923099</v>
+        <v>6871287.067064899</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730457</v>
+        <v>111730525</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90712</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>232140</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367515.5716414675</v>
+        <v>367583.9610761613</v>
       </c>
       <c r="R18" t="n">
-        <v>6871294.915694831</v>
+        <v>6871343.124249188</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2922,7 +2922,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2960,10 +2965,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111731366</v>
+        <v>111730046</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2972,29 +2977,33 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -3003,10 +3012,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367478.0523349147</v>
+        <v>367448.1597365885</v>
       </c>
       <c r="R19" t="n">
-        <v>6871421.667217744</v>
+        <v>6871417.179379676</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3033,22 +3042,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3068,7 +3077,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3086,10 +3095,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111729694</v>
+        <v>111729321</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3098,28 +3107,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3133,10 +3146,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367376.3148749042</v>
+        <v>367478.4289107045</v>
       </c>
       <c r="R20" t="n">
-        <v>6871619.210274726</v>
+        <v>6871540.344720463</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3168,7 +3181,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3178,7 +3191,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3198,7 +3211,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3216,10 +3229,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111730403</v>
+        <v>111730937</v>
       </c>
       <c r="B21" t="n">
-        <v>90709</v>
+        <v>88032</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3228,28 +3241,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3263,10 +3280,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367509.5217049009</v>
+        <v>367427.0662824844</v>
       </c>
       <c r="R21" t="n">
-        <v>6871297.035335077</v>
+        <v>6871565.895031672</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3293,22 +3310,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3346,10 +3363,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111731274</v>
+        <v>111729372</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>78081</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3358,45 +3375,45 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367536.2279934552</v>
+        <v>367457.2767518484</v>
       </c>
       <c r="R22" t="n">
-        <v>6871304.474127219</v>
+        <v>6871554.356343843</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3423,22 +3440,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3458,7 +3480,22 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3476,7 +3513,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111729621</v>
+        <v>111729422</v>
       </c>
       <c r="B23" t="n">
         <v>90666</v>
@@ -3523,10 +3560,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367399.194539216</v>
+        <v>367397.9777122263</v>
       </c>
       <c r="R23" t="n">
-        <v>6871661.648711029</v>
+        <v>6871654.631472632</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3558,7 +3595,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3568,7 +3605,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3606,10 +3643,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111732570</v>
+        <v>111733035</v>
       </c>
       <c r="B24" t="n">
-        <v>78579</v>
+        <v>8377</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3618,30 +3655,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3649,10 +3692,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367471.0424379559</v>
+        <v>367525.4248074447</v>
       </c>
       <c r="R24" t="n">
-        <v>6871338.570634114</v>
+        <v>6871378.373665834</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3684,7 +3727,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3694,12 +3737,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3737,10 +3775,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111730155</v>
+        <v>111731006</v>
       </c>
       <c r="B25" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3749,37 +3787,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3788,10 +3818,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367511.4922534205</v>
+        <v>367374.3210188161</v>
       </c>
       <c r="R25" t="n">
-        <v>6871287.067064899</v>
+        <v>6871616.46209108</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3818,22 +3848,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3871,10 +3901,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111733035</v>
+        <v>111731366</v>
       </c>
       <c r="B26" t="n">
-        <v>8377</v>
+        <v>90652</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3883,36 +3913,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>3100</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3920,10 +3944,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367525.4248074447</v>
+        <v>367478.0523349147</v>
       </c>
       <c r="R26" t="n">
-        <v>6871378.373665834</v>
+        <v>6871421.667217744</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3950,22 +3974,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3985,7 +4009,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4003,10 +4027,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111730937</v>
+        <v>111730844</v>
       </c>
       <c r="B27" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4015,37 +4039,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4054,10 +4070,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367427.0662824844</v>
+        <v>367524.3844621138</v>
       </c>
       <c r="R27" t="n">
-        <v>6871565.895031672</v>
+        <v>6871315.297681119</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4084,7 +4100,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4094,7 +4110,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4119,7 +4135,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4137,10 +4153,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111729372</v>
+        <v>111729694</v>
       </c>
       <c r="B28" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4149,45 +4165,45 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367457.2767518484</v>
+        <v>367376.3148749042</v>
       </c>
       <c r="R28" t="n">
-        <v>6871554.356343843</v>
+        <v>6871619.210274726</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4219,7 +4235,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4229,12 +4245,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4254,22 +4265,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4287,10 +4283,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731030</v>
+        <v>111729473</v>
       </c>
       <c r="B29" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4299,29 +4295,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -4330,10 +4334,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367473.075432463</v>
+        <v>367342.880642174</v>
       </c>
       <c r="R29" t="n">
-        <v>6871475.555632563</v>
+        <v>6871669.024526398</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4360,22 +4364,27 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4413,7 +4422,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730046</v>
+        <v>111731021</v>
       </c>
       <c r="B30" t="n">
         <v>90666</v>
@@ -4447,11 +4456,7 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4460,10 +4465,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367448.1597365885</v>
+        <v>367473.075432463</v>
       </c>
       <c r="R30" t="n">
-        <v>6871417.179379676</v>
+        <v>6871475.555632563</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4490,22 +4495,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4525,7 +4530,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4543,7 +4548,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111731006</v>
+        <v>111730187</v>
       </c>
       <c r="B31" t="n">
         <v>90666</v>
@@ -4577,7 +4582,11 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4586,10 +4595,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367374.3210188161</v>
+        <v>367479.9610695003</v>
       </c>
       <c r="R31" t="n">
-        <v>6871616.46209108</v>
+        <v>6871179.95684042</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4616,22 +4625,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4651,7 +4660,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4669,10 +4678,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111731060</v>
+        <v>111731274</v>
       </c>
       <c r="B32" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4681,29 +4690,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4712,10 +4725,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367494.0193026412</v>
+        <v>367536.2279934552</v>
       </c>
       <c r="R32" t="n">
-        <v>6871395.610869153</v>
+        <v>6871304.474127219</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4747,7 +4760,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4757,7 +4770,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4795,7 +4808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111729473</v>
+        <v>111730985</v>
       </c>
       <c r="B33" t="n">
         <v>90666</v>
@@ -4828,16 +4841,8 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4846,10 +4851,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367342.880642174</v>
+        <v>367353.8170817234</v>
       </c>
       <c r="R33" t="n">
-        <v>6871669.024526398</v>
+        <v>6871659.178617892</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4876,27 +4881,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4934,7 +4934,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111730985</v>
+        <v>111729509</v>
       </c>
       <c r="B34" t="n">
         <v>90666</v>
@@ -4968,7 +4968,11 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4977,10 +4981,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367353.8170817234</v>
+        <v>367351.5527010285</v>
       </c>
       <c r="R34" t="n">
-        <v>6871659.178617892</v>
+        <v>6871697.886848727</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5007,22 +5011,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5060,7 +5064,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111730187</v>
+        <v>111730480</v>
       </c>
       <c r="B35" t="n">
         <v>90666</v>
@@ -5094,11 +5098,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367479.9610695003</v>
+        <v>367528.9347990834</v>
       </c>
       <c r="R35" t="n">
-        <v>6871179.95684042</v>
+        <v>6871323.127923099</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5303,6 +5303,611 @@
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112183627</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78579</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>367479.9366427386</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6871336.811199429</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112182353</v>
+      </c>
+      <c r="B38" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>367392.6615886507</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6871675.561613668</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112181975</v>
+      </c>
+      <c r="B39" t="n">
+        <v>77614</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>967</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Varglav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Letharia vulpina</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.) Hue</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>367461.2460720545</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6871559.382627202</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112182668</v>
+      </c>
+      <c r="B40" t="n">
+        <v>76918</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>367516.808495291</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6871350.919152776</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112183621</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>367463.6634088079</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6871197.54898738</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111730216</v>
+        <v>111733035</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,34 +1292,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1327,10 +1329,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367499.9040505511</v>
+        <v>367525</v>
       </c>
       <c r="R6" t="n">
-        <v>6871171.172595749</v>
+        <v>6871378</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1357,22 +1359,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1410,7 +1412,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111729621</v>
+        <v>111731309</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1457,10 +1459,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367399.194539216</v>
+        <v>367501</v>
       </c>
       <c r="R7" t="n">
-        <v>6871661.648711029</v>
+        <v>6871294</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1487,22 +1489,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1540,10 +1542,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111731030</v>
+        <v>111729321</v>
       </c>
       <c r="B8" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1556,25 +1558,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1583,10 +1593,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367473.075432463</v>
+        <v>367478</v>
       </c>
       <c r="R8" t="n">
-        <v>6871475.555632563</v>
+        <v>6871540</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1613,22 +1623,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111732650</v>
+        <v>111732570</v>
       </c>
       <c r="B9" t="n">
-        <v>88489</v>
+        <v>78579</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1682,21 +1682,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1962</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367499.9406743076</v>
+        <v>367471</v>
       </c>
       <c r="R9" t="n">
-        <v>6871172.113255707</v>
+        <v>6871339</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Växer under silverved</t>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111730258</v>
+        <v>111729621</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1809,29 +1809,33 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1840,10 +1844,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367499.689386631</v>
+        <v>367399</v>
       </c>
       <c r="R10" t="n">
-        <v>6871177.775549179</v>
+        <v>6871662</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1875,7 +1879,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1885,7 +1889,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1923,10 +1927,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111731309</v>
+        <v>111731060</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1935,33 +1939,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367501.3862919735</v>
+        <v>367494</v>
       </c>
       <c r="R11" t="n">
-        <v>6871294.054900883</v>
+        <v>6871396</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2053,10 +2053,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111730403</v>
+        <v>111729509</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2065,25 +2065,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367509.5217049009</v>
+        <v>367352</v>
       </c>
       <c r="R12" t="n">
-        <v>6871297.035335077</v>
+        <v>6871698</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2183,10 +2183,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730457</v>
+        <v>111730985</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2195,33 +2195,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2230,10 +2226,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367515.5716414675</v>
+        <v>367354</v>
       </c>
       <c r="R13" t="n">
-        <v>6871294.915694831</v>
+        <v>6871659</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2260,22 +2256,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2313,10 +2309,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111731060</v>
+        <v>111730457</v>
       </c>
       <c r="B14" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2329,25 +2325,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367494.0193026412</v>
+        <v>367516</v>
       </c>
       <c r="R14" t="n">
-        <v>6871395.610869153</v>
+        <v>6871295</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2439,10 +2439,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111732925</v>
+        <v>111730844</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2451,25 +2451,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367522.3475011056</v>
+        <v>367524</v>
       </c>
       <c r="R15" t="n">
-        <v>6871384.145631685</v>
+        <v>6871315</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2512,22 +2512,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111732570</v>
+        <v>111730403</v>
       </c>
       <c r="B16" t="n">
-        <v>78579</v>
+        <v>90709</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2581,25 +2581,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>5448</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2608,10 +2612,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367471.0424379559</v>
+        <v>367510</v>
       </c>
       <c r="R16" t="n">
-        <v>6871338.570634114</v>
+        <v>6871297</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2638,27 +2642,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2696,10 +2695,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111730155</v>
+        <v>111731932</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>89558</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2708,32 +2707,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>1503</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2747,10 +2742,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367511.4922534205</v>
+        <v>367444</v>
       </c>
       <c r="R17" t="n">
-        <v>6871287.067064899</v>
+        <v>6871417</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2777,22 +2772,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Växer under rötad silverved i kontinuitetskog</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730525</v>
+        <v>111730046</v>
       </c>
       <c r="B18" t="n">
-        <v>90712</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367583.9610761613</v>
+        <v>367448</v>
       </c>
       <c r="R18" t="n">
-        <v>6871343.124249188</v>
+        <v>6871417</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2922,12 +2922,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2965,10 +2960,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111730046</v>
+        <v>111730937</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2977,28 +2972,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3012,10 +3011,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367448.1597365885</v>
+        <v>367427</v>
       </c>
       <c r="R19" t="n">
-        <v>6871417.179379676</v>
+        <v>6871566</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3042,22 +3041,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3095,10 +3094,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111729321</v>
+        <v>111730525</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90712</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3107,32 +3106,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>232140</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Niemelä &amp; Kinnunen</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3146,10 +3141,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367478.4289107045</v>
+        <v>367584</v>
       </c>
       <c r="R20" t="n">
-        <v>6871540.344720463</v>
+        <v>6871343</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3181,7 +3176,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3191,7 +3186,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111730937</v>
+        <v>111729372</v>
       </c>
       <c r="B21" t="n">
-        <v>88032</v>
+        <v>78081</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3241,25 +3241,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6276</v>
+        <v>229821</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3267,23 +3267,19 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367427.0662824844</v>
+        <v>367457</v>
       </c>
       <c r="R21" t="n">
-        <v>6871565.895031672</v>
+        <v>6871554</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3310,22 +3306,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3345,7 +3346,22 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3363,10 +3379,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111729372</v>
+        <v>111730216</v>
       </c>
       <c r="B22" t="n">
-        <v>78081</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3379,41 +3395,41 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>229821</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367457.2767518484</v>
+        <v>367500</v>
       </c>
       <c r="R22" t="n">
-        <v>6871554.356343843</v>
+        <v>6871171</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3445,7 +3461,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3455,12 +3471,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3480,22 +3491,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3513,7 +3509,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111729422</v>
+        <v>111730187</v>
       </c>
       <c r="B23" t="n">
         <v>90666</v>
@@ -3560,10 +3556,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367397.9777122263</v>
+        <v>367480</v>
       </c>
       <c r="R23" t="n">
-        <v>6871654.631472632</v>
+        <v>6871180</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3595,7 +3591,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3605,7 +3601,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3625,7 +3621,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3643,10 +3639,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111733035</v>
+        <v>111729473</v>
       </c>
       <c r="B24" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3659,32 +3655,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3692,10 +3690,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367525.4248074447</v>
+        <v>367343</v>
       </c>
       <c r="R24" t="n">
-        <v>6871378.373665834</v>
+        <v>6871669</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3722,22 +3720,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3775,7 +3778,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111731006</v>
+        <v>111729694</v>
       </c>
       <c r="B25" t="n">
         <v>90666</v>
@@ -3809,7 +3812,11 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3818,10 +3825,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367374.3210188161</v>
+        <v>367376</v>
       </c>
       <c r="R25" t="n">
-        <v>6871616.46209108</v>
+        <v>6871619</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3848,22 +3855,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3901,10 +3908,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111731366</v>
+        <v>111731006</v>
       </c>
       <c r="B26" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3913,25 +3920,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3944,10 +3951,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367478.0523349147</v>
+        <v>367374</v>
       </c>
       <c r="R26" t="n">
-        <v>6871421.667217744</v>
+        <v>6871616</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3979,7 +3986,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3989,7 +3996,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4009,7 +4016,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4027,10 +4034,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111730844</v>
+        <v>111732925</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4039,25 +4046,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4070,10 +4077,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367524.3844621138</v>
+        <v>367522</v>
       </c>
       <c r="R27" t="n">
-        <v>6871315.297681119</v>
+        <v>6871384</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4100,22 +4107,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4135,7 +4142,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4153,7 +4160,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111729694</v>
+        <v>111731274</v>
       </c>
       <c r="B28" t="n">
         <v>90666</v>
@@ -4200,10 +4207,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367376.3148749042</v>
+        <v>367536</v>
       </c>
       <c r="R28" t="n">
-        <v>6871619.210274726</v>
+        <v>6871304</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4230,22 +4237,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4283,10 +4290,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111729473</v>
+        <v>111732650</v>
       </c>
       <c r="B29" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4295,37 +4302,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -4334,10 +4333,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367342.880642174</v>
+        <v>367500</v>
       </c>
       <c r="R29" t="n">
-        <v>6871669.024526398</v>
+        <v>6871172</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4364,27 +4363,27 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe</t>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4404,7 +4403,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4422,7 +4421,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111731021</v>
+        <v>111730480</v>
       </c>
       <c r="B30" t="n">
         <v>90666</v>
@@ -4465,10 +4464,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367473.075432463</v>
+        <v>367529</v>
       </c>
       <c r="R30" t="n">
-        <v>6871475.555632563</v>
+        <v>6871323</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4495,22 +4494,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4530,7 +4529,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4548,10 +4547,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730187</v>
+        <v>111730155</v>
       </c>
       <c r="B31" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4560,28 +4559,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -4595,10 +4598,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367479.9610695003</v>
+        <v>367511</v>
       </c>
       <c r="R31" t="n">
-        <v>6871179.95684042</v>
+        <v>6871287</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4628,19 +4631,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>13:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4660,7 +4653,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4678,10 +4671,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111731274</v>
+        <v>111730258</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4690,33 +4683,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4725,10 +4714,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367536.2279934552</v>
+        <v>367500</v>
       </c>
       <c r="R32" t="n">
-        <v>6871304.474127219</v>
+        <v>6871178</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4755,22 +4744,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4808,7 +4797,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111730985</v>
+        <v>111729422</v>
       </c>
       <c r="B33" t="n">
         <v>90666</v>
@@ -4842,7 +4831,11 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4851,10 +4844,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367353.8170817234</v>
+        <v>367398</v>
       </c>
       <c r="R33" t="n">
-        <v>6871659.178617892</v>
+        <v>6871655</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4881,22 +4874,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4934,10 +4927,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111729509</v>
+        <v>111731366</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4946,33 +4939,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4981,10 +4970,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367351.5527010285</v>
+        <v>367478</v>
       </c>
       <c r="R34" t="n">
-        <v>6871697.886848727</v>
+        <v>6871422</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5011,22 +5000,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5046,7 +5035,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5064,10 +5053,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111730480</v>
+        <v>111738813</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5076,25 +5065,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5103,17 +5092,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämngäddtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367528.9347990834</v>
+        <v>367504</v>
       </c>
       <c r="R35" t="n">
-        <v>6871323.127923099</v>
+        <v>6871204</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5137,22 +5126,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5161,19 +5150,8 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -5190,10 +5168,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111738813</v>
+        <v>112181975</v>
       </c>
       <c r="B36" t="n">
-        <v>90660</v>
+        <v>77614</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5206,40 +5184,41 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4362</v>
+        <v>967</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+          <t>(L.) Hue</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sydost om Jämngäddtjärnen, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367504.48306271</v>
+        <v>367461</v>
       </c>
       <c r="R36" t="n">
-        <v>6871203.967168201</v>
+        <v>6871559</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5263,22 +5242,17 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>08:58</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>08:58</t>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5293,22 +5267,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112183627</v>
+        <v>112182353</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5321,21 +5295,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5349,10 +5323,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367479.9366427386</v>
+        <v>367393</v>
       </c>
       <c r="R37" t="n">
-        <v>6871336.811199429</v>
+        <v>6871676</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5379,22 +5353,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -5426,10 +5390,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112182353</v>
+        <v>112183621</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5438,25 +5402,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -5470,10 +5434,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>367392.6615886507</v>
+        <v>367464</v>
       </c>
       <c r="R38" t="n">
-        <v>6871675.561613668</v>
+        <v>6871198</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5500,22 +5464,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -5547,10 +5501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112181975</v>
+        <v>112182668</v>
       </c>
       <c r="B39" t="n">
-        <v>77614</v>
+        <v>76918</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5563,21 +5517,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>967</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5591,10 +5545,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367461.2460720545</v>
+        <v>367517</v>
       </c>
       <c r="R39" t="n">
-        <v>6871559.382627202</v>
+        <v>6871351</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5624,19 +5578,9 @@
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -5668,10 +5612,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112182668</v>
+        <v>112183627</v>
       </c>
       <c r="B40" t="n">
-        <v>76918</v>
+        <v>78579</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5684,21 +5628,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5712,10 +5656,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367516.808495291</v>
+        <v>367480</v>
       </c>
       <c r="R40" t="n">
-        <v>6871350.919152776</v>
+        <v>6871337</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5742,22 +5686,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -5786,127 +5720,6 @@
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>112183621</v>
-      </c>
-      <c r="B41" t="n">
-        <v>90678</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>4366</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Hydnellum peckii</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Vassbo, Dlr</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>367463.6634088079</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6871197.54898738</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Älvdalen</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Idre</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
-        </is>
-      </c>
-      <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr">
-        <is>
-          <t>Mimmi Persson</t>
-        </is>
-      </c>
-      <c r="AX41" t="inlineStr">
-        <is>
-          <t>Mimmi Persson</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111153887</v>
+        <v>111200610</v>
       </c>
       <c r="B2" t="n">
-        <v>89330</v>
+        <v>89646</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,29 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -723,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>367499.9406743076</v>
+        <v>367417.1812242154</v>
       </c>
       <c r="R2" t="n">
-        <v>6871172.113255707</v>
+        <v>6871578.525890993</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -758,7 +766,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Växer på undersidan av silverved. Tallgren.</t>
+          <t>Växer på undersidan av klen gammal talltopp i fin kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +801,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Tallskog med inslag av död ved. Brandpåverkat område. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -826,10 +834,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111200610</v>
+        <v>111215763</v>
       </c>
       <c r="B3" t="n">
-        <v>89646</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -838,38 +846,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -877,10 +882,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>367417.1812242154</v>
+        <v>367366.6755207586</v>
       </c>
       <c r="R3" t="n">
-        <v>6871578.525890993</v>
+        <v>6871613.934201019</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -907,7 +912,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -917,7 +922,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -927,7 +932,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Växer på undersidan av klen gammal talltopp i fin kontinuitetsskog.</t>
+          <t>Hackmärken på tall vid myrkant</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -936,7 +941,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -947,7 +951,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Tallskog med inslag av död ved. Brandpåverkat område. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -980,10 +984,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111215763</v>
+        <v>111729621</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -992,35 +996,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1028,10 +1031,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>367366.6755207586</v>
+        <v>367399</v>
       </c>
       <c r="R4" t="n">
-        <v>6871613.934201019</v>
+        <v>6871662</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1058,27 +1061,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Hackmärken på tall vid myrkant</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1087,6 +1085,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1097,22 +1096,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1130,10 +1114,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111215825</v>
+        <v>111731006</v>
       </c>
       <c r="B5" t="n">
-        <v>89558</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1142,33 +1126,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1177,10 +1157,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>367443.9207636421</v>
+        <v>367374</v>
       </c>
       <c r="R5" t="n">
-        <v>6871417.344502704</v>
+        <v>6871616</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1207,27 +1187,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av låga.</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1247,22 +1222,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1280,10 +1240,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111733035</v>
+        <v>111729372</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>78081</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1292,47 +1252,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>229821</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367525</v>
+        <v>367457</v>
       </c>
       <c r="R6" t="n">
-        <v>6871378</v>
+        <v>6871554</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1359,22 +1317,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1394,7 +1357,22 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1412,7 +1390,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111731309</v>
+        <v>111729422</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1459,10 +1437,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367501</v>
+        <v>367398</v>
       </c>
       <c r="R7" t="n">
-        <v>6871294</v>
+        <v>6871655</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1489,22 +1467,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1542,10 +1520,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111729321</v>
+        <v>111729473</v>
       </c>
       <c r="B8" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1554,30 +1532,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1593,10 +1571,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367478</v>
+        <v>367343</v>
       </c>
       <c r="R8" t="n">
-        <v>6871540</v>
+        <v>6871669</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1626,9 +1604,24 @@
           <t>2023-08-27</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1648,7 +1641,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1666,10 +1659,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111732570</v>
+        <v>111730937</v>
       </c>
       <c r="B9" t="n">
-        <v>78579</v>
+        <v>88032</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1678,29 +1671,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1709,10 +1710,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367471</v>
+        <v>367427</v>
       </c>
       <c r="R9" t="n">
-        <v>6871339</v>
+        <v>6871566</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1739,27 +1740,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1797,7 +1793,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111729621</v>
+        <v>111729509</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1844,10 +1840,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367399</v>
+        <v>367352</v>
       </c>
       <c r="R10" t="n">
-        <v>6871662</v>
+        <v>6871698</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1879,7 +1875,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1927,10 +1923,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111731060</v>
+        <v>111730985</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1939,25 +1935,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1970,10 +1966,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367494</v>
+        <v>367354</v>
       </c>
       <c r="R11" t="n">
-        <v>6871396</v>
+        <v>6871659</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2015,7 +2011,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2053,10 +2049,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111729509</v>
+        <v>111729321</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2065,28 +2061,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367352</v>
+        <v>367478</v>
       </c>
       <c r="R12" t="n">
-        <v>6871698</v>
+        <v>6871540</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2133,19 +2133,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>14:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2165,7 +2155,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2183,7 +2173,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111730985</v>
+        <v>111729694</v>
       </c>
       <c r="B13" t="n">
         <v>90666</v>
@@ -2217,7 +2207,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2226,10 +2220,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367354</v>
+        <v>367376</v>
       </c>
       <c r="R13" t="n">
-        <v>6871659</v>
+        <v>6871619</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2256,22 +2250,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2309,10 +2303,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111730457</v>
+        <v>112181975</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>77734</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2325,41 +2319,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>967</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>(L.) Hue</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367516</v>
+        <v>367461</v>
       </c>
       <c r="R14" t="n">
-        <v>6871295</v>
+        <v>6871559</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2386,22 +2377,17 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>13:30</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>13:30</t>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2410,39 +2396,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111730844</v>
+        <v>112182353</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>77636</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2451,41 +2426,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367524</v>
+        <v>367393</v>
       </c>
       <c r="R15" t="n">
-        <v>6871315</v>
+        <v>6871676</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2512,22 +2488,17 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2536,39 +2507,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111730403</v>
+        <v>111153887</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>89330</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2581,29 +2541,25 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>3242</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2612,10 +2568,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367510</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R16" t="n">
-        <v>6871297</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2642,22 +2598,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av silverved. Tallgren.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2677,7 +2638,22 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2695,7 +2671,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111731932</v>
+        <v>111215825</v>
       </c>
       <c r="B17" t="n">
         <v>89558</v>
@@ -2742,10 +2718,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367444</v>
+        <v>367443.9207636421</v>
       </c>
       <c r="R17" t="n">
-        <v>6871417</v>
+        <v>6871417.344502704</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2777,7 +2753,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2787,12 +2763,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Växer under rötad silverved i kontinuitetskog</t>
+          <t>Växer på undersidan av låga.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2812,7 +2788,22 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2830,10 +2821,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730046</v>
+        <v>111730155</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2842,28 +2833,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2877,10 +2872,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367448</v>
+        <v>367511</v>
       </c>
       <c r="R18" t="n">
-        <v>6871417</v>
+        <v>6871287</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2910,19 +2905,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>14:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2960,10 +2945,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111730937</v>
+        <v>111730258</v>
       </c>
       <c r="B19" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2972,37 +2957,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -3011,10 +2988,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367427</v>
+        <v>367500</v>
       </c>
       <c r="R19" t="n">
-        <v>6871566</v>
+        <v>6871178</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3041,22 +3018,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3229,10 +3206,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111729372</v>
+        <v>111731366</v>
       </c>
       <c r="B21" t="n">
-        <v>78081</v>
+        <v>90652</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3245,41 +3222,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>229821</v>
+        <v>3100</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367457</v>
+        <v>367478</v>
       </c>
       <c r="R21" t="n">
-        <v>6871554</v>
+        <v>6871422</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3306,27 +3279,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3346,22 +3314,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3509,7 +3462,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111730187</v>
+        <v>111730480</v>
       </c>
       <c r="B23" t="n">
         <v>90666</v>
@@ -3543,11 +3496,7 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3556,10 +3505,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367480</v>
+        <v>367529</v>
       </c>
       <c r="R23" t="n">
-        <v>6871180</v>
+        <v>6871323</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3621,7 +3570,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3639,10 +3588,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111729473</v>
+        <v>111731932</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>89558</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3651,32 +3600,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3690,10 +3635,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367343</v>
+        <v>367444</v>
       </c>
       <c r="R24" t="n">
-        <v>6871669</v>
+        <v>6871417</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3720,27 +3665,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe</t>
+          <t>Växer under rötad silverved i kontinuitetskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3778,7 +3723,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111729694</v>
+        <v>111730046</v>
       </c>
       <c r="B25" t="n">
         <v>90666</v>
@@ -3825,10 +3770,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367376</v>
+        <v>367448</v>
       </c>
       <c r="R25" t="n">
-        <v>6871619</v>
+        <v>6871417</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3908,10 +3853,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111731006</v>
+        <v>111730403</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3920,29 +3865,33 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3951,10 +3900,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367374</v>
+        <v>367510</v>
       </c>
       <c r="R26" t="n">
-        <v>6871616</v>
+        <v>6871297</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3981,22 +3930,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4034,10 +3983,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111732925</v>
+        <v>111731274</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4046,29 +3995,33 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4077,10 +4030,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367522</v>
+        <v>367536</v>
       </c>
       <c r="R27" t="n">
-        <v>6871384</v>
+        <v>6871304</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4107,7 +4060,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4117,7 +4070,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4142,7 +4095,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4160,10 +4113,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111731274</v>
+        <v>111733035</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4176,30 +4129,32 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4207,10 +4162,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367536</v>
+        <v>367525</v>
       </c>
       <c r="R28" t="n">
-        <v>6871304</v>
+        <v>6871378</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4237,22 +4192,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4290,10 +4245,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111732650</v>
+        <v>111731060</v>
       </c>
       <c r="B29" t="n">
-        <v>88489</v>
+        <v>90709</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4306,21 +4261,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1962</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4333,10 +4288,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367500</v>
+        <v>367494</v>
       </c>
       <c r="R29" t="n">
-        <v>6871172</v>
+        <v>6871396</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4363,27 +4318,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4403,7 +4353,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4421,7 +4371,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730480</v>
+        <v>111730187</v>
       </c>
       <c r="B30" t="n">
         <v>90666</v>
@@ -4455,7 +4405,11 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4464,10 +4418,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367529</v>
+        <v>367480</v>
       </c>
       <c r="R30" t="n">
-        <v>6871323</v>
+        <v>6871180</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4529,7 +4483,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4547,10 +4501,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111730155</v>
+        <v>111732570</v>
       </c>
       <c r="B31" t="n">
-        <v>90682</v>
+        <v>78579</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4563,33 +4517,25 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4598,10 +4544,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367511</v>
+        <v>367471</v>
       </c>
       <c r="R31" t="n">
-        <v>6871287</v>
+        <v>6871339</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4628,12 +4574,27 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4671,7 +4632,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730258</v>
+        <v>111730457</v>
       </c>
       <c r="B32" t="n">
         <v>90660</v>
@@ -4705,7 +4666,11 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4714,10 +4679,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367500</v>
+        <v>367516</v>
       </c>
       <c r="R32" t="n">
-        <v>6871178</v>
+        <v>6871295</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4797,7 +4762,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111729422</v>
+        <v>111731309</v>
       </c>
       <c r="B33" t="n">
         <v>90666</v>
@@ -4844,10 +4809,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367398</v>
+        <v>367501</v>
       </c>
       <c r="R33" t="n">
-        <v>6871655</v>
+        <v>6871294</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4874,22 +4839,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4927,10 +4892,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111731366</v>
+        <v>111732925</v>
       </c>
       <c r="B34" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4943,21 +4908,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4970,10 +4935,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367478</v>
+        <v>367522</v>
       </c>
       <c r="R34" t="n">
-        <v>6871422</v>
+        <v>6871384</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5000,7 +4965,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -5010,7 +4975,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -5035,7 +5000,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5053,10 +5018,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111738813</v>
+        <v>111732650</v>
       </c>
       <c r="B35" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5069,21 +5034,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5092,17 +5057,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sydost om Jämngäddtjärnen, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367504</v>
+        <v>367500</v>
       </c>
       <c r="R35" t="n">
-        <v>6871204</v>
+        <v>6871172</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5126,22 +5091,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:58</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:58</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5150,8 +5120,19 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Sandtallskog. Kontinuitetskog</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -5168,10 +5149,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112181975</v>
+        <v>111730844</v>
       </c>
       <c r="B36" t="n">
-        <v>77614</v>
+        <v>90666</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5180,42 +5161,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>967</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Vassbo, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367461</v>
+        <v>367524</v>
       </c>
       <c r="R36" t="n">
-        <v>6871559</v>
+        <v>6871315</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5242,17 +5222,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5261,28 +5246,39 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112182353</v>
+        <v>111738813</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>90660</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5295,41 +5291,40 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Vassbo, Dlr</t>
+          <t>Sydost om Jämngäddtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367393</v>
+        <v>367504</v>
       </c>
       <c r="R37" t="n">
-        <v>6871676</v>
+        <v>6871204</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5353,17 +5348,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5378,12 +5378,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5393,7 +5393,7 @@
         <v>112183621</v>
       </c>
       <c r="B38" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112182668</v>
+        <v>112183627</v>
       </c>
       <c r="B39" t="n">
-        <v>76918</v>
+        <v>78700</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5517,21 +5517,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367517</v>
+        <v>367480</v>
       </c>
       <c r="R39" t="n">
-        <v>6871351</v>
+        <v>6871337</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -5612,10 +5612,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112183627</v>
+        <v>112182668</v>
       </c>
       <c r="B40" t="n">
-        <v>78579</v>
+        <v>77039</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5628,21 +5628,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2081</v>
+        <v>6437</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5656,10 +5656,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367480</v>
+        <v>367517</v>
       </c>
       <c r="R40" t="n">
-        <v>6871337</v>
+        <v>6871351</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -2303,10 +2303,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112181975</v>
+        <v>112182353</v>
       </c>
       <c r="B14" t="n">
-        <v>77734</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2319,21 +2319,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>967</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367461</v>
+        <v>367393</v>
       </c>
       <c r="R14" t="n">
-        <v>6871559</v>
+        <v>6871676</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112182353</v>
+        <v>112181975</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>77748</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2430,21 +2430,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>967</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367393</v>
+        <v>367461</v>
       </c>
       <c r="R15" t="n">
-        <v>6871676</v>
+        <v>6871559</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112183621</v>
+        <v>112183627</v>
       </c>
       <c r="B38" t="n">
-        <v>90812</v>
+        <v>78714</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>2081</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>367464</v>
+        <v>367480</v>
       </c>
       <c r="R38" t="n">
-        <v>6871198</v>
+        <v>6871337</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112183627</v>
+        <v>112183621</v>
       </c>
       <c r="B39" t="n">
-        <v>78700</v>
+        <v>90826</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5513,25 +5513,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>4366</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367480</v>
+        <v>367464</v>
       </c>
       <c r="R39" t="n">
-        <v>6871337</v>
+        <v>6871198</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5615,7 +5615,7 @@
         <v>112182668</v>
       </c>
       <c r="B40" t="n">
-        <v>77039</v>
+        <v>77053</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>

--- a/artfynd/A 30241-2023.xlsx
+++ b/artfynd/A 30241-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111200610</v>
+        <v>111153887</v>
       </c>
       <c r="B2" t="n">
-        <v>89646</v>
+        <v>89330</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,37 +692,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>3242</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -731,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>367417.1812242154</v>
+        <v>367499.9406743076</v>
       </c>
       <c r="R2" t="n">
-        <v>6871578.525890993</v>
+        <v>6871172.113255707</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -776,12 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Växer på undersidan av klen gammal talltopp i fin kontinuitetsskog.</t>
+          <t>Växer på undersidan av silverved. Tallgren.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +793,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Tallskog med inslag av död ved. Brandpåverkat område. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -834,10 +826,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111215763</v>
+        <v>111200610</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89646</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -846,35 +838,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -882,10 +877,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>367366.6755207586</v>
+        <v>367417.1812242154</v>
       </c>
       <c r="R3" t="n">
-        <v>6871613.934201019</v>
+        <v>6871578.525890993</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,7 +907,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -922,7 +917,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -932,7 +927,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Hackmärken på tall vid myrkant</t>
+          <t>Växer på undersidan av klen gammal talltopp i fin kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -941,6 +936,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -951,7 +947,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Tallskog med inslag av död ved. Brandpåverkat område. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -984,10 +980,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111729621</v>
+        <v>111215763</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -996,34 +992,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1031,10 +1028,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>367399</v>
+        <v>367366.6755207586</v>
       </c>
       <c r="R4" t="n">
-        <v>6871662</v>
+        <v>6871613.934201019</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1061,22 +1058,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Hackmärken på tall vid myrkant</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1085,7 +1087,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1096,7 +1097,22 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1114,10 +1130,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111731006</v>
+        <v>111215825</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>89558</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1126,29 +1142,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1157,10 +1177,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>367374</v>
+        <v>367443.9207636421</v>
       </c>
       <c r="R5" t="n">
-        <v>6871616</v>
+        <v>6871417.344502704</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1187,22 +1207,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Växer på undersidan av låga.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1222,7 +1247,22 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1240,10 +1280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111729372</v>
+        <v>111730155</v>
       </c>
       <c r="B6" t="n">
-        <v>78081</v>
+        <v>90682</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1256,41 +1296,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229821</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367457</v>
+        <v>367511</v>
       </c>
       <c r="R6" t="n">
-        <v>6871554</v>
+        <v>6871287</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1320,24 +1364,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1357,22 +1386,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Hedtallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1390,10 +1404,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111729422</v>
+        <v>111730258</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1402,33 +1416,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1437,10 +1447,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367398</v>
+        <v>367500</v>
       </c>
       <c r="R7" t="n">
-        <v>6871655</v>
+        <v>6871178</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1472,7 +1482,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1482,7 +1492,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1520,10 +1530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111729473</v>
+        <v>111730525</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90712</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1532,32 +1542,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>Niemelä &amp; Kinnunen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1571,10 +1577,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367343</v>
+        <v>367584</v>
       </c>
       <c r="R8" t="n">
-        <v>6871669</v>
+        <v>6871343</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1606,7 +1612,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1616,12 +1622,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe</t>
+          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1659,10 +1665,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111730937</v>
+        <v>111729621</v>
       </c>
       <c r="B9" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1671,32 +1677,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -1710,10 +1712,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367427</v>
+        <v>367399</v>
       </c>
       <c r="R9" t="n">
-        <v>6871566</v>
+        <v>6871662</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1740,22 +1742,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1793,7 +1795,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111729509</v>
+        <v>111731006</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1827,11 +1829,7 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1840,10 +1838,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>367352</v>
+        <v>367374</v>
       </c>
       <c r="R10" t="n">
-        <v>6871698</v>
+        <v>6871616</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1870,22 +1868,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1923,10 +1921,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111730985</v>
+        <v>111731366</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1935,25 +1933,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1966,10 +1964,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367354</v>
+        <v>367478</v>
       </c>
       <c r="R11" t="n">
-        <v>6871659</v>
+        <v>6871422</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2001,7 +1999,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2011,7 +2009,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2031,7 +2029,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2049,10 +2047,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111729321</v>
+        <v>111729372</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>78081</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2065,21 +2063,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>229821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2087,23 +2085,19 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367478</v>
+        <v>367457</v>
       </c>
       <c r="R12" t="n">
-        <v>6871540</v>
+        <v>6871554</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2133,9 +2127,24 @@
           <t>2023-08-27</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2155,7 +2164,22 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Hedtasllskog. Kontinuitetsskog</t>
+          <t>Hedtallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2173,10 +2197,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111729694</v>
+        <v>111730216</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2185,25 +2209,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2220,10 +2244,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367376</v>
+        <v>367500</v>
       </c>
       <c r="R13" t="n">
-        <v>6871619</v>
+        <v>6871171</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2255,7 +2279,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2265,7 +2289,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2303,10 +2327,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112182353</v>
+        <v>111729422</v>
       </c>
       <c r="B14" t="n">
-        <v>77650</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2315,42 +2339,45 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Vassbo, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367393</v>
+        <v>367398</v>
       </c>
       <c r="R14" t="n">
-        <v>6871676</v>
+        <v>6871655</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2377,17 +2404,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2396,28 +2428,39 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Sandtallskog. Kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112181975</v>
+        <v>111729473</v>
       </c>
       <c r="B15" t="n">
-        <v>77748</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2426,42 +2469,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>967</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Vassbo, Dlr</t>
+          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367461</v>
+        <v>367343</v>
       </c>
       <c r="R15" t="n">
-        <v>6871559</v>
+        <v>6871669</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2488,17 +2538,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2507,28 +2567,39 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Sandtallskog. Kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111153887</v>
+        <v>111730480</v>
       </c>
       <c r="B16" t="n">
-        <v>89330</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2537,25 +2608,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3242</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2568,10 +2639,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>367499.9406743076</v>
+        <v>367529</v>
       </c>
       <c r="R16" t="n">
-        <v>6871172.113255707</v>
+        <v>6871323</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2598,27 +2669,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av silverved. Tallgren.</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2638,22 +2704,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2671,7 +2722,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111215825</v>
+        <v>111731932</v>
       </c>
       <c r="B17" t="n">
         <v>89558</v>
@@ -2718,10 +2769,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>367443.9207636421</v>
+        <v>367444</v>
       </c>
       <c r="R17" t="n">
-        <v>6871417.344502704</v>
+        <v>6871417</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2753,7 +2804,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2763,12 +2814,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Växer på undersidan av låga.</t>
+          <t>Växer under rötad silverved i kontinuitetskog</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2788,22 +2839,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2821,10 +2857,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111730155</v>
+        <v>111730046</v>
       </c>
       <c r="B18" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2833,32 +2869,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -2872,10 +2904,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>367511</v>
+        <v>367448</v>
       </c>
       <c r="R18" t="n">
-        <v>6871287</v>
+        <v>6871417</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2905,9 +2937,19 @@
           <t>2023-08-27</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2945,10 +2987,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111730258</v>
+        <v>111730403</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2961,25 +3003,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2988,10 +3034,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>367500</v>
+        <v>367510</v>
       </c>
       <c r="R19" t="n">
-        <v>6871178</v>
+        <v>6871297</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3071,10 +3117,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111730525</v>
+        <v>111730937</v>
       </c>
       <c r="B20" t="n">
-        <v>90712</v>
+        <v>88032</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3087,24 +3133,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>232140</v>
+        <v>6276</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
@@ -3118,10 +3168,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>367584</v>
+        <v>367427</v>
       </c>
       <c r="R20" t="n">
-        <v>6871343</v>
+        <v>6871566</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3148,7 +3198,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3158,17 +3208,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Växer på undersidan av tallåga</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3206,10 +3251,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111731366</v>
+        <v>111731274</v>
       </c>
       <c r="B21" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3218,29 +3263,33 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -3249,10 +3298,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>367478</v>
+        <v>367536</v>
       </c>
       <c r="R21" t="n">
-        <v>6871422</v>
+        <v>6871304</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3314,7 +3363,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3332,10 +3381,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111730216</v>
+        <v>111733035</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>8377</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3344,34 +3393,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>106545</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3379,10 +3430,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367500</v>
+        <v>367525</v>
       </c>
       <c r="R22" t="n">
-        <v>6871171</v>
+        <v>6871378</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3409,22 +3460,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3462,10 +3513,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111730480</v>
+        <v>111731060</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3474,25 +3525,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3505,10 +3556,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367529</v>
+        <v>367494</v>
       </c>
       <c r="R23" t="n">
-        <v>6871323</v>
+        <v>6871396</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3535,22 +3586,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3588,10 +3639,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111731932</v>
+        <v>111730187</v>
       </c>
       <c r="B24" t="n">
-        <v>89558</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3600,25 +3651,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3635,10 +3686,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367444</v>
+        <v>367480</v>
       </c>
       <c r="R24" t="n">
-        <v>6871417</v>
+        <v>6871180</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3665,27 +3716,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Växer under rötad silverved i kontinuitetskog</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3705,7 +3751,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuietsskog</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3723,7 +3769,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111730046</v>
+        <v>111729509</v>
       </c>
       <c r="B25" t="n">
         <v>90666</v>
@@ -3770,10 +3816,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367448</v>
+        <v>367352</v>
       </c>
       <c r="R25" t="n">
-        <v>6871417</v>
+        <v>6871698</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3805,7 +3851,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3815,7 +3861,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3853,10 +3899,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111730403</v>
+        <v>111730985</v>
       </c>
       <c r="B26" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3865,33 +3911,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3900,10 +3942,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367510</v>
+        <v>367354</v>
       </c>
       <c r="R26" t="n">
-        <v>6871297</v>
+        <v>6871659</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3930,22 +3972,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3983,10 +4025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111731274</v>
+        <v>111732570</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>78579</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3995,33 +4037,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>2081</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -4030,10 +4068,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367536</v>
+        <v>367471</v>
       </c>
       <c r="R27" t="n">
-        <v>6871304</v>
+        <v>6871339</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4060,7 +4098,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4070,12 +4108,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Växer på gammal sälg</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4113,10 +4156,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111733035</v>
+        <v>111730457</v>
       </c>
       <c r="B28" t="n">
-        <v>8377</v>
+        <v>90660</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4125,36 +4168,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>4362</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4162,10 +4203,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367525</v>
+        <v>367516</v>
       </c>
       <c r="R28" t="n">
-        <v>6871378</v>
+        <v>6871295</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4192,22 +4233,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4245,10 +4286,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111731060</v>
+        <v>111731309</v>
       </c>
       <c r="B29" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4257,29 +4298,33 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -4288,10 +4333,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367494</v>
+        <v>367501</v>
       </c>
       <c r="R29" t="n">
-        <v>6871396</v>
+        <v>6871294</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4323,7 +4368,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4333,7 +4378,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4371,10 +4416,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111730187</v>
+        <v>111732925</v>
       </c>
       <c r="B30" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4383,33 +4428,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4418,10 +4459,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>367480</v>
+        <v>367522</v>
       </c>
       <c r="R30" t="n">
-        <v>6871180</v>
+        <v>6871384</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4448,22 +4489,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4483,7 +4524,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuietsskog</t>
+          <t>Sandtallskog. Kontinuitetsskog.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4501,10 +4542,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111732570</v>
+        <v>111729321</v>
       </c>
       <c r="B31" t="n">
-        <v>78579</v>
+        <v>90709</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4517,25 +4558,33 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4544,10 +4593,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>367471</v>
+        <v>367478</v>
       </c>
       <c r="R31" t="n">
-        <v>6871339</v>
+        <v>6871540</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4574,27 +4623,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>12:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Växer på gammal sälg</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4614,7 +4648,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Hedtasllskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4632,10 +4666,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111730457</v>
+        <v>111732650</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4648,29 +4682,25 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4679,10 +4709,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367516</v>
+        <v>367500</v>
       </c>
       <c r="R32" t="n">
-        <v>6871295</v>
+        <v>6871172</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4709,22 +4739,27 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Växer under silverved</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4744,7 +4779,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog</t>
+          <t>Sandtallskog. Kontinuitetskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4762,7 +4797,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111731309</v>
+        <v>111729694</v>
       </c>
       <c r="B33" t="n">
         <v>90666</v>
@@ -4809,10 +4844,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367501</v>
+        <v>367376</v>
       </c>
       <c r="R33" t="n">
-        <v>6871294</v>
+        <v>6871619</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4839,22 +4874,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4892,10 +4927,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111732925</v>
+        <v>111730844</v>
       </c>
       <c r="B34" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4904,25 +4939,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4935,10 +4970,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367522</v>
+        <v>367524</v>
       </c>
       <c r="R34" t="n">
-        <v>6871384</v>
+        <v>6871315</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4965,22 +5000,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5000,7 +5035,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Sandtallskog. Kontinuitetsskog.</t>
+          <t>Sandtallskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5018,10 +5053,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111732650</v>
+        <v>111738813</v>
       </c>
       <c r="B35" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5034,21 +5069,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5057,17 +5092,17 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Sydost om Jämngäddtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367500</v>
+        <v>367504</v>
       </c>
       <c r="R35" t="n">
-        <v>6871172</v>
+        <v>6871204</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5091,27 +5126,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer under silverved</t>
+          <t>08:58</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5120,19 +5150,8 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Sandtallskog. Kontinuitetskog</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -5149,10 +5168,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111730844</v>
+        <v>112182668</v>
       </c>
       <c r="B36" t="n">
-        <v>90666</v>
+        <v>77053</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5161,41 +5180,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sydost om Jämtgäddtjärn, Vassbo  Idre, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367524</v>
+        <v>367517</v>
       </c>
       <c r="R36" t="n">
-        <v>6871315</v>
+        <v>6871351</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5222,22 +5242,17 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5246,39 +5261,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111738813</v>
+        <v>112182353</v>
       </c>
       <c r="B37" t="n">
-        <v>90660</v>
+        <v>77650</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5291,40 +5295,41 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sydost om Jämngäddtjärnen, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367504</v>
+        <v>367393</v>
       </c>
       <c r="R37" t="n">
-        <v>6871204</v>
+        <v>6871676</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5348,22 +5353,17 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>08:58</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>08:58</t>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5378,12 +5378,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112183621</v>
+        <v>112181975</v>
       </c>
       <c r="B39" t="n">
-        <v>90826</v>
+        <v>77748</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5513,25 +5513,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4366</v>
+        <v>967</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367464</v>
+        <v>367461</v>
       </c>
       <c r="R39" t="n">
-        <v>6871198</v>
+        <v>6871559</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -5612,10 +5612,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112182668</v>
+        <v>112183621</v>
       </c>
       <c r="B40" t="n">
-        <v>77053</v>
+        <v>90826</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5624,25 +5624,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6437</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5656,10 +5656,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367517</v>
+        <v>367464</v>
       </c>
       <c r="R40" t="n">
-        <v>6871351</v>
+        <v>6871198</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
